--- a/ГОСТ/Подшипники/Стопор внутренний/Стопор внутренний до 165мм (ГОСТ 13943-86).xlsx
+++ b/ГОСТ/Подшипники/Стопор внутренний/Стопор внутренний до 165мм (ГОСТ 13943-86).xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F0388405-CE63-43E5-864D-47E583501839}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D8A7A2A4-214A-42CB-8E44-798A3230A343}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="veryHidden" xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{A5059E7C-4793-41EC-90BC-71058505FA60}"/>
+    <workbookView visibility="veryHidden" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A5059E7C-4793-41EC-90BC-71058505FA60}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -13,10 +13,16 @@
   <definedNames>
     <definedName name="Family">Лист1!$A$2</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -440,7 +446,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8CC9191-12A5-4164-8AA7-9D7C0A5728CD}">
   <dimension ref="A1:O75"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="105" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -449,7 +455,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.5703125" style="1" customWidth="1"/>
     <col min="3" max="3" width="7.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="7.5703125" style="1" customWidth="1"/>

--- a/ГОСТ/Подшипники/Стопор внутренний/Стопор внутренний до 165мм (ГОСТ 13943-86).xlsx
+++ b/ГОСТ/Подшипники/Стопор внутренний/Стопор внутренний до 165мм (ГОСТ 13943-86).xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D8A7A2A4-214A-42CB-8E44-798A3230A343}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3936DC2-B205-485E-AF15-CFAC2EAE796E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="veryHidden" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A5059E7C-4793-41EC-90BC-71058505FA60}"/>
+    <workbookView visibility="veryHidden" xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{A5059E7C-4793-41EC-90BC-71058505FA60}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -13,16 +13,10 @@
   <definedNames>
     <definedName name="Family">Лист1!$A$2</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -446,7 +440,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8CC9191-12A5-4164-8AA7-9D7C0A5728CD}">
   <dimension ref="A1:O75"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="105" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -455,7 +449,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.5703125" style="1" customWidth="1"/>
     <col min="3" max="3" width="7.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="7.5703125" style="1" customWidth="1"/>

--- a/ГОСТ/Подшипники/Стопор внутренний/Стопор внутренний до 165мм (ГОСТ 13943-86).xlsx
+++ b/ГОСТ/Подшипники/Стопор внутренний/Стопор внутренний до 165мм (ГОСТ 13943-86).xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3936DC2-B205-485E-AF15-CFAC2EAE796E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB73C20D-9803-458F-AFDA-E56127F8F319}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="veryHidden" xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{A5059E7C-4793-41EC-90BC-71058505FA60}"/>
+    <workbookView visibility="veryHidden" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A5059E7C-4793-41EC-90BC-71058505FA60}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -13,10 +13,16 @@
   <definedNames>
     <definedName name="Family">Лист1!$A$2</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -440,7 +446,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8CC9191-12A5-4164-8AA7-9D7C0A5728CD}">
   <dimension ref="A1:O75"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="105" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -449,7 +455,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.5703125" style="1" customWidth="1"/>
     <col min="3" max="3" width="7.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="7.5703125" style="1" customWidth="1"/>

--- a/ГОСТ/Подшипники/Стопор внутренний/Стопор внутренний до 165мм (ГОСТ 13943-86).xlsx
+++ b/ГОСТ/Подшипники/Стопор внутренний/Стопор внутренний до 165мм (ГОСТ 13943-86).xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB73C20D-9803-458F-AFDA-E56127F8F319}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{348F519D-B9CC-4C59-A6CA-39C1E164B24B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="veryHidden" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A5059E7C-4793-41EC-90BC-71058505FA60}"/>
+    <workbookView visibility="veryHidden" xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{A5059E7C-4793-41EC-90BC-71058505FA60}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -13,16 +13,10 @@
   <definedNames>
     <definedName name="Family">Лист1!$A$2</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -446,7 +440,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8CC9191-12A5-4164-8AA7-9D7C0A5728CD}">
   <dimension ref="A1:O75"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="105" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -455,7 +449,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.5703125" style="1" customWidth="1"/>
     <col min="3" max="3" width="7.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="7.5703125" style="1" customWidth="1"/>

--- a/ГОСТ/Подшипники/Стопор внутренний/Стопор внутренний до 165мм (ГОСТ 13943-86).xlsx
+++ b/ГОСТ/Подшипники/Стопор внутренний/Стопор внутренний до 165мм (ГОСТ 13943-86).xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{348F519D-B9CC-4C59-A6CA-39C1E164B24B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D33B9EA1-3B90-4FAB-A775-CC07DEA1377B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="veryHidden" xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{A5059E7C-4793-41EC-90BC-71058505FA60}"/>
+    <workbookView visibility="veryHidden" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A5059E7C-4793-41EC-90BC-71058505FA60}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -13,10 +13,16 @@
   <definedNames>
     <definedName name="Family">Лист1!$A$2</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -440,16 +446,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8CC9191-12A5-4164-8AA7-9D7C0A5728CD}">
   <dimension ref="A1:O75"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="105" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.5703125" style="1" customWidth="1"/>
     <col min="3" max="3" width="7.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="7.5703125" style="1" customWidth="1"/>
@@ -4122,20 +4128,897 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="13">
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="C3:C4" xr:uid="{78D84083-5DBE-450A-8504-4F71D609DCCC}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_e@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="M3:M4" xr:uid="{2D852152-A6AE-4283-929C-3061F6CE5FE1}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d4@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="E3:L4 J5:J14" xr:uid="{EAEB1A5F-0D40-4733-BB00-A725EF1C3B33}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_a@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="H3:L4 J5:J14" xr:uid="{A1EE5753-439B-4F55-ABB0-2324048FB51C}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_l@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="I3:J4 J5:J14" xr:uid="{7CF0F89E-C80E-4578-A3C9-8666DBEB2458}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r1@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="K3:L4" xr:uid="{2B1EC042-24F1-41CE-AAB2-1FB91C7CFA25}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="J3:J14" xr:uid="{E8790516-FE1C-445A-9CD4-28DAE89A52BD}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d3@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="D3:L4 J5:J14" xr:uid="{09E50F95-9D7E-49F8-98EA-83DDD5E21868}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_D@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="B3:B4" xr:uid="{3FC99DF7-431C-432E-88A1-B9BF24CAF91D}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d1@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="N3:O4 O5:O15" xr:uid="{50442185-D530-451C-8A03-19D2FD04EFF2}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_DD@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="L3:L4" xr:uid="{014EC0FA-6466-477C-943E-1FC9B544980E}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_b@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="G3:L4 J5:J14" xr:uid="{CBAF7EC4-4C98-4545-84B9-08439C8BB442}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_s@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="F3:L4 J5:J14" xr:uid="{6C688956-C673-4F6D-AB06-AE104CE8885B}"/>
+  <dataValidations count="890">
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="C3 C4" xr:uid="{78D84083-5DBE-450A-8504-4F71D609DCCC}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_e@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="M3 M4" xr:uid="{2D852152-A6AE-4283-929C-3061F6CE5FE1}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d4@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="E3 E4" xr:uid="{EAEB1A5F-0D40-4733-BB00-A725EF1C3B33}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_a@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="H4 J4 H3 H3:H4 I4 I3 J14 J3 J5 J6 J7 J8 J9 J10 J11 J12 J13 K4 K3 L3 L4" xr:uid="{A1EE5753-439B-4F55-ABB0-2324048FB51C}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_l@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="I3:J4 J5:J14 I3 I4" xr:uid="{7CF0F89E-C80E-4578-A3C9-8666DBEB2458}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r1@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="K3:L4 K3 K4" xr:uid="{2B1EC042-24F1-41CE-AAB2-1FB91C7CFA25}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="J3:J14 J3 J4 J5 J6 J7 J8 J9 J10 J11 J12 J13 J14" xr:uid="{E8790516-FE1C-445A-9CD4-28DAE89A52BD}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d3@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="J5:J14 D4 D3 E3:E4 F4 F3 H3:L4 G3 G4" xr:uid="{09E50F95-9D7E-49F8-98EA-83DDD5E21868}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_D@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="B3 B4" xr:uid="{3FC99DF7-431C-432E-88A1-B9BF24CAF91D}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d1@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="O5:O15 O3:O4 N3 N4" xr:uid="{50442185-D530-451C-8A03-19D2FD04EFF2}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_DD@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="L3:L4 L3 L4" xr:uid="{014EC0FA-6466-477C-943E-1FC9B544980E}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_b@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="G3:L4 J5:J14 G3 G4" xr:uid="{CBAF7EC4-4C98-4545-84B9-08439C8BB442}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_s@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="F3:L4 J5:J14 F3 F4" xr:uid="{6C688956-C673-4F6D-AB06-AE104CE8885B}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_D@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="B5" xr:uid="{2DC21EC4-B4B7-46CD-8DA3-76A8D536B0E7}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_D@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="B6" xr:uid="{D43EA236-86EE-4DD5-9203-360A44059972}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_D@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="B7" xr:uid="{0D559184-0A59-4D0E-956E-708401EA099C}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_D@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="B8" xr:uid="{FDF86B18-2767-4E12-9EC2-C641F02D1153}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_D@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="B9" xr:uid="{8B867A3D-F7EA-42AE-BD37-6DCE33803E2A}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_D@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="B10" xr:uid="{98D725DE-58D7-49CF-935C-79EF9C878C1B}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_D@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="B11" xr:uid="{CA8C34A5-7425-4C08-91C1-CBD6FD0B97C4}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_D@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="B12" xr:uid="{CD2E093E-182E-4E44-97BE-7BAAB7F8FEF0}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_D@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="B13" xr:uid="{88919BA2-75FC-48B5-BCAD-6C83EB9119A7}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_D@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="B14" xr:uid="{B5931B70-1243-4CC3-B8D4-57CA728FB279}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_D@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="B15" xr:uid="{D80907C2-6F7A-4DF0-9980-6B8E18CA6402}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_D@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="B16" xr:uid="{76F1453C-8498-478F-B5F6-3468B137720D}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_D@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="B17" xr:uid="{8BF3120D-6F8D-4B0C-B40A-F04442A28835}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_D@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="B18" xr:uid="{BA2B539E-8E37-47D0-BBF2-8FE2E6733595}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_D@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="B19" xr:uid="{A119C34D-E984-4ADC-B609-26848D913B1F}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_D@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="B20" xr:uid="{1518529B-C88B-4BAE-8A55-A21B761ED75B}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_D@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="B21" xr:uid="{81A629CD-1D89-4608-9EB9-141A60FFE211}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_D@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="B22" xr:uid="{F1A2B6BE-32AA-4843-9EAF-2A7FAEC9D063}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_D@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="B23" xr:uid="{A15EE590-2CFB-42C2-8137-74C167A329DB}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_D@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="B24" xr:uid="{48B87F19-DF2A-4175-AF5B-9DC43DF05A75}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_D@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="B25" xr:uid="{9975E50B-A7AF-487B-B1EB-C100E958595D}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_D@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="B26" xr:uid="{3F6AA737-D522-4C90-B842-2090A6DE9E80}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_D@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="B27" xr:uid="{25A0F167-0E1F-4213-A921-AAABF6B0A6DB}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_D@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="B28" xr:uid="{3B36FAE6-9591-462C-AFF8-DC7973C292C7}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_D@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="B29" xr:uid="{749C9815-6D6D-4DCF-ABA6-F09B369BDDD7}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_D@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="B30" xr:uid="{B9E13BEC-6553-40BC-BA3A-F436DA1A1FD2}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_D@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="B31" xr:uid="{FA6685A0-83F0-4E8E-93A5-C6B2CFA571C3}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_D@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="B32" xr:uid="{7CDD1070-55C3-469A-8CC6-CAA4F17C1ADE}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_D@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="B33" xr:uid="{3693B06E-FF31-4BE8-9ED0-0E2A86106817}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_D@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="B34" xr:uid="{72744967-204F-40E2-822D-3329ADEBE353}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_D@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="B35" xr:uid="{DBE15446-A4AF-4ACF-B965-8D0EE363C5A5}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_D@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="B36" xr:uid="{F20F676F-EF59-4601-B251-56E80712A0EB}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_D@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="B37" xr:uid="{CECEC532-96C0-41D6-8849-537F9B3182D4}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_D@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="B38" xr:uid="{08EC963F-2FD2-4746-B918-3799C2CE0A9E}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_D@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="B39" xr:uid="{F57BFC06-4D04-4FB7-98EB-96A47903B2B8}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_D@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="B40" xr:uid="{322C7F3B-4C55-48CF-A077-A9483B6C07EC}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_D@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="B41" xr:uid="{2EC7D436-6CB8-45F4-9F88-FD8277122DEA}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_D@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="B42" xr:uid="{A1BC7B6A-C73E-4A9D-8386-EBFA278B6752}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_D@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="B43" xr:uid="{60D40941-7D9C-4B1A-B336-DDDD56E0E2FA}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_D@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="B44" xr:uid="{15A3ED51-D3F6-4BDF-BD61-4205A3959C0C}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_D@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="B45" xr:uid="{88915B3E-EBB2-4620-B00E-E51711482823}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_D@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="B46" xr:uid="{6A694A38-3096-4C2D-A5A1-0C1738A4BFA2}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_D@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="B47" xr:uid="{D7489DC2-06BA-4F47-8D11-356F2EEEBCED}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_D@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="B48" xr:uid="{40E2DC5C-1961-40BF-9598-C6EA6294454F}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_D@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="B49" xr:uid="{5AC6F411-8072-4AA2-8C5B-1AF59301ABEA}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_D@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="B50" xr:uid="{9A148959-3B6A-41F2-A66E-13370A0822DA}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_D@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="B51" xr:uid="{E58FE193-9F78-484D-B55B-BC5F05E32852}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_D@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="B52" xr:uid="{69F1B40E-B8C3-409F-B7E0-DE18040FDF4C}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_D@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="B53" xr:uid="{D86B4222-156D-4E32-BC86-E28574FCCEBF}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_D@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="B54" xr:uid="{165DEC1A-FA23-42A1-9F4C-42386E851142}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_D@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="B55" xr:uid="{3D548409-178F-4F71-8060-B1D7B374D704}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_D@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="B56" xr:uid="{31064144-3C9E-4B31-99C7-0987666F4EEB}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_D@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="B57" xr:uid="{090A3E93-FC25-4901-A95D-12C3B4A867EB}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_D@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="B58" xr:uid="{EDF2ACB5-54B3-4469-A841-804EE7D6F70E}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_D@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="B59" xr:uid="{2F61533D-F5C0-4ECF-AF7B-5B236AACBD5B}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_D@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="B60" xr:uid="{70D13ED5-7E0C-4450-B0CF-3112A86A2303}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_D@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="B61" xr:uid="{F160138B-BFA5-49E5-B8DD-256D6C2308D2}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_D@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="B62" xr:uid="{EBE8E344-66C5-4710-8C4C-2A44218AC7B9}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_D@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="B63" xr:uid="{B0DC8A76-0528-4ABC-85C4-FD15A6BA1436}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_D@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="B64" xr:uid="{2925F021-33BF-448B-92BB-30A56D3552E6}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_D@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="B65" xr:uid="{D1A4D653-5914-4D7D-8BC9-A3E105EA54A7}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_D@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="B66" xr:uid="{16D0AEA1-3CA5-461E-BACB-28E2050503DA}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_D@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="B67" xr:uid="{2FE7DF5A-E313-4FAC-88BF-88A188C66653}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_D@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="B68" xr:uid="{8B1894B9-6922-4EF6-9521-C34E725413EF}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_D@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="B69" xr:uid="{7E272855-C593-4CBC-B2DA-AEBB8CF7A0FF}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_D@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="B70" xr:uid="{CCD5B4BD-6DF9-47D3-BBC7-B53CC43A2E0C}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_D@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="B71" xr:uid="{D65E738D-7FC7-47C6-9B20-2DE438B2D90C}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_D@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="B72" xr:uid="{B78EABD7-5C0C-4687-ACBC-11E48246CF53}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_D@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="B73" xr:uid="{3DF419D7-5ED6-4BBE-8460-CE25D1D32280}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_D@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="B74" xr:uid="{4DAED0F0-7D14-4FA8-B7B8-0DFC35748BF9}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_D@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="B75" xr:uid="{664E8908-FBA5-4F07-8227-46F6F372465B}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="C5" xr:uid="{9FB6D111-44B9-424C-B893-2457D889F3C8}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="C6" xr:uid="{CB172BED-A374-4F6E-B91A-632F5BF82AB7}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="C7" xr:uid="{E8CB80FD-ADA6-434E-B517-3C5151C68AC1}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="C8" xr:uid="{0AE14B50-084E-4F79-8247-F2DCEA34BA49}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="C9" xr:uid="{C791BAAC-13BD-4BCD-B0B1-0D44B159E659}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="C10" xr:uid="{912FC924-BFC0-4654-8DD0-2CB2E3860CCF}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="C11" xr:uid="{1FCFA9F5-201E-42D3-8735-F053622AA383}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="C12" xr:uid="{26A98CCD-5303-46C5-9008-07ADB968A843}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="C13" xr:uid="{B37156CA-EF7D-433C-889F-EA0C9C1C9478}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="C14" xr:uid="{32AFCFCB-9263-43F2-8DF2-EDB0A7357F06}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="C15" xr:uid="{02BC3567-9BF7-43B3-9B82-50A9DB48DFC2}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="C16" xr:uid="{2AAB1A38-B1B9-4792-8C15-98762F4F9BC0}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="C17" xr:uid="{89A1A64A-42FB-458D-A71F-3BEA8A29A387}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="C18" xr:uid="{D659597A-5B61-464A-BCF3-8F2E7FB97D41}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="C19" xr:uid="{4FB99E99-7C05-411D-9F82-89CFD9809AD6}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="C20" xr:uid="{B74267F9-459F-4447-9D24-F281C6F995F8}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="C21" xr:uid="{D972AB33-C2CA-4060-9FD9-102C5C30AE8C}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="C22" xr:uid="{5D32D820-5E5E-4738-95A6-864966281E6E}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="C23" xr:uid="{20DF1A9E-9F7E-4A36-BFCC-46B77EDF039B}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="C24" xr:uid="{8C94C2AD-9A56-4C01-8D6F-BDC46A556AA7}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="C25" xr:uid="{C0A599ED-32B9-4C8E-9585-0A175AA8ACF4}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="C26" xr:uid="{35C47CB0-94CD-4012-862C-4D7CC219D79E}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="C27" xr:uid="{0DCF1537-A85A-4668-8BCD-A89D2748B0AD}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="C28" xr:uid="{D21EE07A-092E-4FAA-ACF6-A2BAFC55EF1E}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="C29" xr:uid="{AACD7474-4C94-4293-A5C6-7A854BA48FD3}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="C30" xr:uid="{5500C0A1-BF63-48F0-877B-865231C24BF3}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="C31" xr:uid="{383EBA9D-E957-4037-B73F-D226830B7DE7}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="C32" xr:uid="{B82DB2DD-C067-4198-A549-6A94F87ECB00}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="C33" xr:uid="{75A568BF-6DB6-49BE-BA8F-872A63ACF256}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="C34" xr:uid="{BEB45BCC-8047-4AE9-BABE-4D703A19F2E7}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="C35" xr:uid="{AD14CC82-8DEE-45BB-A399-7D53AC332C0E}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="C36" xr:uid="{76C8C185-25CE-4D07-BD29-84C5B9645012}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="C37" xr:uid="{0953B19C-CCB9-495A-8985-4188FAACB239}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="C38" xr:uid="{4D478A59-FE72-4D5B-9061-3743870CF225}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="C39" xr:uid="{97735C54-68CD-426E-A52A-6974B6762157}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="C40" xr:uid="{9DBC729C-E694-45E2-A9E4-DC9DC208B79A}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="C41" xr:uid="{6A6B800D-825E-4DBC-909F-441EB7805DC2}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="C42" xr:uid="{9845B451-6946-4DAE-8CF6-71BAEAC4C149}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="C43" xr:uid="{70C1CC7F-F7CA-4BCE-9B73-46708064EF84}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="C44" xr:uid="{48EA2FAF-0DF6-42EE-A337-16C2108D61D5}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="C45" xr:uid="{8F8E3A69-234B-43A0-8E06-41887C88D233}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="C46" xr:uid="{6A18672F-D2D7-4D9F-B651-E345C06B105B}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="C47" xr:uid="{B3034500-FF02-44C9-A0E1-7ACAD596A79F}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="C48" xr:uid="{75EBA242-6C3D-45D4-A3B6-CE120BD87DDD}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="C49" xr:uid="{5ADA4AD4-55E0-49AD-84DE-4E881DE6037C}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="C59" xr:uid="{4C4B0213-0DDA-4D5F-A44A-972B15B79FBA}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="C60" xr:uid="{1F37EBF6-C42B-420A-AB46-101C7E66AD00}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="C61" xr:uid="{74B2C1BC-FEB3-46B8-96F3-D14E305EA9C4}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="C62" xr:uid="{5F79CDA4-4CA5-437C-AA87-2A75C79B3FD9}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="C63" xr:uid="{256FD074-D615-4F6C-8E29-B582ABBEEAEC}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="C64" xr:uid="{CB786B1D-B7BC-4402-9498-25F02F8E9B13}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d3@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="D5" xr:uid="{2A1A682C-2BE4-4324-897A-47EA44425E82}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d3@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="D6" xr:uid="{8FFEC6FD-0577-459B-A8F3-83FA1CEC6EA9}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d3@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="D7" xr:uid="{6CB694B5-8B69-4CD1-A323-1D08741B78EE}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d3@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="D8" xr:uid="{B6EC211D-3FB8-4C0D-83DE-9EAA034B03F5}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d3@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="D9" xr:uid="{FB63D490-7CB8-404D-B636-54F5C6A10D8C}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d3@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="D10" xr:uid="{F5456BF1-FAF1-464F-B848-5CC7C45CB514}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d3@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="D11" xr:uid="{1E85D11E-067C-4B93-A285-8BFAADD03C40}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d3@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="D12" xr:uid="{AFB43126-07BF-4B26-A5E1-C04E0773256F}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d3@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="D13" xr:uid="{AA35962B-6F6F-462C-A988-AA29D10043CF}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d3@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="D14" xr:uid="{C4470B6F-600F-4446-B690-D5215E169307}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d3@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="D15" xr:uid="{A6660FF4-E259-4BC4-BDAC-6D80A074ACAD}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d3@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="D16" xr:uid="{35922530-D366-49B0-89DA-CFAF311CC0B0}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d3@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="D17" xr:uid="{B34EE984-52CB-4F3E-99EF-F1F38D6B5E44}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d3@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="D18" xr:uid="{BC144546-04F4-4F78-AB0E-4EDCDC66A380}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d3@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="D19" xr:uid="{4CE11ABF-16A8-4485-8F05-945F13F10DE0}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d3@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="D20" xr:uid="{3ECCC178-DDAD-46DF-BBB2-F1D753BF5506}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d3@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="D21" xr:uid="{51B66CBD-3035-4B1B-A494-79A47360F1D4}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d3@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="D22" xr:uid="{1C3DD735-4443-4D3D-B135-670CA69998EB}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d3@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="D23" xr:uid="{CB2F5EB1-792F-40EE-808E-D8E26DC7BAFD}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d3@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="D24" xr:uid="{9121E0B7-101C-4487-90EF-68863E24C8C4}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d3@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="D25" xr:uid="{4005CEA4-729F-412B-9FBD-317EE39AF6D4}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d3@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="D26" xr:uid="{F0C5A3C9-1E84-4732-B340-45D3BD5F7E7A}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d3@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="D27" xr:uid="{2687A605-BFFF-424F-8B8F-F5E16A9693F5}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d3@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="D28" xr:uid="{4AD5E784-F064-4125-AA5D-F3F0944B2F11}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d3@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="D29" xr:uid="{76810AC4-795E-403E-BE5A-2A15122B2434}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d3@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="D30" xr:uid="{532204F7-36AD-481F-846F-ACBD54036950}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d3@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="D31" xr:uid="{B529A7F7-0375-4327-AFA3-E8512488C882}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d3@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="D32" xr:uid="{C4B97A38-42E9-46DF-86D9-8614108E7576}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d3@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="D33" xr:uid="{87073E61-0B98-458F-8BA7-068CE8BAE97C}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d3@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="D34" xr:uid="{B465039B-DF34-4515-983E-D3319AAA0B7D}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d3@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="D35" xr:uid="{20B2700D-40E1-4FE1-BB8E-0D969EEBE736}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d3@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="D36" xr:uid="{FC254944-0E23-48D6-B221-9F89E26170E8}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d3@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="D37" xr:uid="{7079EBB3-4240-433B-A50D-0F148FF482C5}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d3@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="D38" xr:uid="{83800585-571A-41E2-9198-AC57D1711F19}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d3@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="D39" xr:uid="{5A8B792C-F306-451D-ACA5-7652912CADAE}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d3@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="D40" xr:uid="{75AD0DEA-5BC1-4FA1-8401-8A6B06805B42}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d3@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="D41" xr:uid="{4F71FF4E-D42A-4D2E-B955-1FE62917ED43}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d3@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="D42" xr:uid="{67540130-3C0A-4BF9-A7A8-EE218F92E44A}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d3@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="D43" xr:uid="{FD63C470-3EBB-4A61-B4B5-A1FAB6C63118}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d3@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="D44" xr:uid="{DA6B16CB-3952-437E-873E-E892F2DE1E0D}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d3@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="D45" xr:uid="{0A3CADEB-73EA-4ADD-827E-19C7F0672B3B}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d3@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="D46" xr:uid="{FA87411A-AD57-4C3D-BE5B-4A45DACC2240}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d3@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="D47" xr:uid="{D504D715-A917-40DF-927E-5A886FD8208C}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d3@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="D48" xr:uid="{779821E6-B50C-47D9-B6B1-D8E79574B9B5}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d3@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="D49" xr:uid="{6DC8ED7D-F07D-4C89-BD68-98A614D2614C}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d3@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="D50" xr:uid="{A96A0F7A-5B98-4801-9189-912934FF6BF5}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d3@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="D51" xr:uid="{F60AB19F-D142-415F-A332-D8678CFAA214}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d3@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="D52" xr:uid="{835BCFE2-D30C-41FC-9CCC-908A23C922FC}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d3@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="D53" xr:uid="{36307B4F-069D-4A86-A717-7A2DE6E466EA}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d3@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="D54" xr:uid="{20A3FD3C-A970-4174-998F-36B4058CD99D}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d3@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="D55" xr:uid="{13E6F485-92B5-4879-9A5A-DCB67493A609}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d3@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="D56" xr:uid="{C2C5A468-E6AA-4B86-8D50-A1F9AFED9AC9}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d3@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="D57" xr:uid="{22DD251C-0797-4145-A26B-6AA5683D149A}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d3@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="D58" xr:uid="{9E2115CA-7620-441D-BDE9-CF413716C44C}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d3@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="D59" xr:uid="{04633C39-0617-47FF-8600-7B97E5BD145A}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d3@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="D60" xr:uid="{8B428E28-2BD5-4F1A-B148-7FA1D3A9E9CD}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d3@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="D61" xr:uid="{A86CDF8A-A5A1-4B40-9F0F-74A3F87BC838}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d3@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="D62" xr:uid="{20466C69-30F6-4E99-A92F-52E46A6EDDFA}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d3@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="D63" xr:uid="{6CD0E20F-53CA-43DE-A553-8917DB31793B}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d3@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="D64" xr:uid="{66DB37BB-8F0B-4529-AEDA-DDD16D6830C9}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d3@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="D65" xr:uid="{55418EB7-3EB6-4C07-BB01-92743B44629C}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d3@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="D66" xr:uid="{16990980-1B1B-4DA0-B6BF-C61792C6481E}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d3@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="D67" xr:uid="{E607CFBF-BF35-4ECD-96B4-A20D621A7F88}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d3@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="D68" xr:uid="{FEAE2D0B-1A2A-4805-8A16-591D99B97558}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d3@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="D69" xr:uid="{FA2077EF-71E6-4E13-B9B1-4173D92FA926}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d3@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="D70" xr:uid="{EA59CDF3-0884-46FC-8735-DDDC3D9FA38D}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d3@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="D71" xr:uid="{94F2AFEE-BB72-4F30-B0A6-A69A322A9DCD}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d3@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="D72" xr:uid="{5D800FB0-F133-491E-96AB-8DAD7A0ADAEA}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d3@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="D73" xr:uid="{11E7ADB2-83F1-4F6D-8EBB-6DC7C8FF6228}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d3@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="D74" xr:uid="{995464C3-307B-4C24-B49A-2A3D5934EF58}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d3@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="D75" xr:uid="{3D6BCB2B-C98A-4308-9742-84C12A873933}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d4@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="E5" xr:uid="{72664FCB-5853-405A-BF02-52A61E07D167}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d4@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="E6" xr:uid="{5D378416-535B-43A0-8B47-73699E6EED57}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d4@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="E7" xr:uid="{2584EB73-5AE3-40AF-A579-38DE5EE6C568}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d4@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="E8" xr:uid="{5C933F79-17DD-46C4-98B2-A429C63F8CBC}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d4@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="E9" xr:uid="{A29881F3-13BE-4D64-B43B-D5002409A8B5}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d4@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="E10" xr:uid="{7749FAF1-F54D-4F5D-ACA0-8767C4234B59}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d4@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="E11" xr:uid="{0DB867AA-3086-4929-8DE5-E7CA9B067B64}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d4@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="E12" xr:uid="{8918ED80-16A8-4856-B23B-9F4D1F355BFA}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d4@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="E13" xr:uid="{04145D2A-F5F1-4EE5-821F-B250437E6166}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d4@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="E14" xr:uid="{BD4EC182-45BA-413C-8A7F-BDA653A3504E}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d4@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="E15" xr:uid="{8652D1A4-A0E9-4AA0-9BDB-03CF693DE3DB}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d4@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="E16" xr:uid="{C547DCA2-91B1-4131-966D-9F58A4240881}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d4@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="E17" xr:uid="{A6A4A240-BA2C-4E0B-8A96-5F16F3D4A029}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d4@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="E18" xr:uid="{D53BA3C3-994F-43BD-AB2B-68D2D5194958}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d4@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="E19" xr:uid="{0ACFFFDE-95CD-4AF6-8FEE-F661D94DE055}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d4@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="E20" xr:uid="{C10897E0-5624-48A5-8517-A78E47D7FB5B}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d4@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="E21" xr:uid="{216A5E95-D480-4D3E-A94F-19A01EF27EAC}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d4@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="E22" xr:uid="{041A6A57-F59E-417A-A11B-24BE6F9B2253}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d4@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="E23" xr:uid="{1A3FBA8D-D881-4A59-B007-4FD6892968BB}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d4@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="E24" xr:uid="{3B5CBC66-0A35-45FD-A02F-6A835E988A9A}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d4@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="E25" xr:uid="{4431EB0B-C709-4532-9FB6-0DCCF7B202CF}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d4@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="E26" xr:uid="{7B631237-F9D1-4E9D-9C72-CB43EC7E3B68}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d4@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="E27" xr:uid="{5D996B96-68CC-4636-8856-80B5389313A0}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d4@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="E28" xr:uid="{DEFBC79C-C80B-4B4A-AB3F-AFE006DB1EBC}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d4@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="E29" xr:uid="{A62BFBB3-6BDA-47D0-AD2B-814E1861A559}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d4@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="E30" xr:uid="{F5635A9C-4B19-4225-BF49-47FBA7EFA8F6}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d4@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="E31" xr:uid="{AC488995-CED4-4915-A014-FEA6072D2608}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d4@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="E32" xr:uid="{44E2A315-D735-4783-90C8-60C1E3E1EFC8}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d4@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="E33" xr:uid="{4D71C023-B218-4E41-B67B-E9DCD62D12F2}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d4@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="E34" xr:uid="{EEAE7194-DCC9-43CE-828B-03348AA54B9B}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d4@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="E35" xr:uid="{8FFE4359-96F2-4965-83DE-564E8AFAFCCF}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d4@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="E36" xr:uid="{6B73F47D-F927-4C47-8A88-386C67025201}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d4@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="E37" xr:uid="{03DB5EE6-A283-48BD-A1BD-2EF76621BF3D}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d4@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="E38" xr:uid="{23103044-61B9-42D0-9EB2-1666A9FF9F61}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d4@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="E39" xr:uid="{46308336-912C-4304-A17E-FF274427D983}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d4@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="E40" xr:uid="{E1CC5CED-128C-4637-A70D-F0AD28BBA08F}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d4@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="E41" xr:uid="{E60307CF-8161-42A0-8DEB-A15213332754}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d4@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="E42" xr:uid="{53D48665-FA07-4928-87FF-F451B52831B7}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d4@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="E43" xr:uid="{F21DF0BB-1D1B-4977-945B-C1C7B7AA54C8}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d4@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="E44" xr:uid="{B940223F-D6D8-45F2-A260-5FB05215BCC8}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d4@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="E45" xr:uid="{6E228112-5B36-452E-9BE9-1E22AF94D7EA}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d4@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="E46" xr:uid="{1A4585E8-8BF8-47B7-A007-375663ED337F}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d4@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="E47" xr:uid="{287A79C5-2156-45C4-93C0-F539717036F5}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d4@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="E48" xr:uid="{6013FCEA-88CE-48B9-A7D2-DF03986D8783}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d4@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="E49" xr:uid="{98077F07-CF34-4AC0-986C-34244FDC0B4D}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d4@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="E50" xr:uid="{AF45CB34-4467-4EE2-92F3-ADAA4406E879}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d4@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="E51" xr:uid="{02343F8E-0A52-479C-9922-790D35F23D94}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d4@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="E52" xr:uid="{7EA0D82E-B1DF-44AA-9F59-DAFFCF3885C0}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d4@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="E53" xr:uid="{A0072E13-0D9F-4E1B-B13D-D6DD047C1CDC}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d4@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="E54" xr:uid="{453A10F5-521B-46A0-B111-B3C58C6A3E96}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d4@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="E55" xr:uid="{EDAB9E04-C09E-46D1-8CA9-615B572FEA33}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d4@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="E56" xr:uid="{078B61B1-0982-4C07-89BF-61AD6C0981B1}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d4@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="E57" xr:uid="{148F1C63-B754-4290-97B2-D2DA3BC6048D}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d4@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="E58" xr:uid="{E42FAB2F-3B48-4050-874F-9B1D82DB8D65}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d4@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="E59" xr:uid="{9897A6BB-6806-4A9A-9A83-484B0B354AA7}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d4@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="E60" xr:uid="{810D04EB-F27C-4EAA-9EAC-B93949B40022}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d4@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="E61" xr:uid="{C42B080F-6690-4F11-B897-A3CD5AFCF8F3}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d4@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="E62" xr:uid="{197D681C-E213-4B43-A43A-7B3E204FE84E}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d4@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="E63" xr:uid="{699600EF-31D2-4187-A023-C6ADB495BCEE}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d4@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="E64" xr:uid="{C0F47F6A-3F64-4355-B49A-3BA416DD608E}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d4@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="E65" xr:uid="{80A4B267-1508-4F08-8FB2-21B6F783D689}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d4@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="E66" xr:uid="{1258D0F6-6B96-4583-BA84-5DA28A81FB77}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d4@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="E67" xr:uid="{97234966-C8D7-4D11-9697-415695E7D1CB}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d4@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="E68" xr:uid="{4FEDF8E4-9F68-4FFF-AACE-39F1EE8FE616}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d4@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="E69" xr:uid="{94A128F3-D834-41C9-B5DC-308AD406E5A7}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d4@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="E70" xr:uid="{7905CDB7-E9F9-4997-A8FF-7AE2F371BA0D}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d4@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="E71" xr:uid="{52866181-B576-4B96-A431-F63B74590EA2}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d4@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="E72" xr:uid="{76B60552-31E1-4232-93C5-42DB54F436C0}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d4@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="E73" xr:uid="{37A6639A-8BD0-4F9B-BFE4-743D26B5B163}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d4@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="E74" xr:uid="{3808FAF8-4792-46F0-86B9-D3B9E4455C0C}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d4@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="E75" xr:uid="{D582F23B-E467-4840-8198-FA610BA0C64F}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_s@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="F5" xr:uid="{0F1B4F4A-2635-4899-AEBC-82E6ED157CFC}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_s@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="F6" xr:uid="{A19042C5-7AE1-4A66-91D0-5FEF3BEA546F}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_s@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="F7" xr:uid="{79987E4B-31CD-415B-928E-9B3E48A88786}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_s@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="F8" xr:uid="{53C334B4-0F85-4B46-9434-4FA56C4AD7EF}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_s@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="F9" xr:uid="{A5BC4350-4554-46A4-8894-CF9F3A771AC2}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_s@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="F10" xr:uid="{736B04D5-3EFB-4D48-855F-974CD90A683B}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_s@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="F11" xr:uid="{CAE67F09-2EB1-41F8-B20A-67F56C564232}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_s@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="F12" xr:uid="{43362CFD-4304-43A9-A4F6-01F063E98455}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_s@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="F13" xr:uid="{BA89F59E-08D0-452E-A2C4-227E3E4CB0AA}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_s@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="F14" xr:uid="{B464382A-FC8C-4847-B74E-C2DF9F8CE9AD}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_s@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="F15" xr:uid="{22EB639A-2BE0-4DAE-AA30-6E0700A59E62}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_s@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="F16" xr:uid="{E72D7E82-B477-49F7-AD8F-3212F58B80CD}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_s@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="F17" xr:uid="{44AF0395-C105-4732-A756-699DAA493D2A}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_s@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="F18" xr:uid="{12F842E5-1FEE-446B-90D9-306565EFB070}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_s@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="F19" xr:uid="{9137AC27-059B-4C6F-9B37-27EA721B1887}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_s@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="F20" xr:uid="{E22363AD-3A09-421F-AD80-6D6D887F6FF3}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_s@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="F21" xr:uid="{12EC97EA-C673-4B41-80AB-6279E743AFD0}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_s@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="F22" xr:uid="{E5447879-6F65-48B3-9C4C-7B0D99BB877D}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_s@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="F23" xr:uid="{638A2FB6-11EA-481C-A0CC-233873E04251}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_s@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="F24" xr:uid="{F0E14B4C-2FEF-4431-9CAF-E0ACA9780D9E}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_s@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="F25" xr:uid="{522F0F05-AAA8-42D0-A129-377CD3EF02E9}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_s@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="F26" xr:uid="{A21566FE-B184-4669-95BD-37E5B065AED8}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_s@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="F27" xr:uid="{A26F8530-9EC7-459C-8075-FE7F49B21BEC}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_s@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="F28" xr:uid="{E8F28D95-8966-4A71-AC2C-23DE5DAFFB5A}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_s@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="F29" xr:uid="{41B76401-DE02-49CE-9D15-064FF78935BF}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_s@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="F30" xr:uid="{E67DDA3D-FAED-4C69-AE72-6C8C9B388D05}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_s@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="F31" xr:uid="{440E81D4-C703-4F8F-876A-5048D217E30B}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_s@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="F32" xr:uid="{659814EF-4E1F-4C72-A2E1-4DB18C58ACF9}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_s@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="F33" xr:uid="{A3C7FD77-5ED5-49A2-86F6-6167592F35CE}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_s@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="F34" xr:uid="{EE1ECCD8-0EB2-4B18-981A-E92E8211116B}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_s@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="F35" xr:uid="{EDA4F83A-E94A-46E8-AF9F-C2D6FEBD72A3}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_s@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="F36" xr:uid="{554F69AC-00CB-4AE7-B5F8-3CCB3797A395}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_s@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="F37" xr:uid="{AF734FB7-7E54-4D53-A5C8-FDFBDDC2D06F}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_s@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="F38" xr:uid="{67895A8C-CD6F-4C11-8A83-CAE9FE94C4C2}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_s@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="F39" xr:uid="{770D9216-CEC7-4993-9F6B-D1DD9B0F5EB6}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_s@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="F40" xr:uid="{2787B0F5-A524-47A4-8103-3334F8807A41}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_s@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="F41" xr:uid="{5412458C-BE01-4BC3-8DCB-468D8B366104}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_s@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="F42" xr:uid="{25A78762-4638-4FE9-A08A-B1BDED3BB3A7}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_s@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="F43" xr:uid="{7AD6D34A-4909-4D4F-9B44-1A3BD0F94B7B}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_s@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="F44" xr:uid="{8066E791-7483-45DD-9279-2DD04AEB4284}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_s@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="F45" xr:uid="{C033E966-2AE4-4302-81FB-5510B92C11E3}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_s@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="F46" xr:uid="{10118082-2E1D-4BB5-BB50-B04CCC7E6811}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_s@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="F47" xr:uid="{242BAF21-B598-43C9-BBA2-70997225CC64}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_s@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="F48" xr:uid="{E4DF7DE0-7007-4D1A-A1BF-254AA864B24F}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_s@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="F49" xr:uid="{B0F9D041-CEE9-4B54-85CA-7844EC7F4B28}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_s@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="F50" xr:uid="{95DAF763-4FA6-45A3-A0B7-01DEC39B746B}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_s@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="F51" xr:uid="{4B343520-38E2-4339-B0BC-67E6A6C5BABE}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_s@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="F52" xr:uid="{9605C76D-EDA1-4523-A993-E21A9E805DBF}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_s@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="F53" xr:uid="{FE387007-1228-494C-9139-D66546769C44}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_s@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="F54" xr:uid="{F206C16A-C08B-40AB-AEC4-2E48D159C099}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_s@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="F55" xr:uid="{336AC4EC-DBCC-4E75-95EC-A05FE147321C}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_s@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="F56" xr:uid="{52F94FC2-96FB-46A6-AC26-047423E125FB}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_s@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="F57" xr:uid="{DB80552C-958D-46AA-B270-D994FBE196BF}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_s@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="F58" xr:uid="{8913F010-5055-4EA1-B018-9788579D2E85}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_s@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="F59" xr:uid="{FB6035E5-A63E-4F35-ADF5-83C1FA2B7AE6}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_s@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="F60" xr:uid="{3E18436C-C7FF-4650-B0A5-D441E453DF17}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_s@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="F61" xr:uid="{1300622E-157B-4FC1-B0B3-76754E0DC906}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_s@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="F62" xr:uid="{7AE6D386-3DB7-4851-A5D5-4A287ADBDEEE}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_s@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="F63" xr:uid="{67A42E52-0332-4EB5-8A62-8647D298C3AA}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_s@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="F64" xr:uid="{D12210E5-EA29-41A0-963A-F9F08DAA5767}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_s@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="F65" xr:uid="{E8EC4883-0B6C-4590-B8CD-746408AC1606}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_s@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="F66" xr:uid="{653C80EA-446F-417D-BEF7-85020936A1F3}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_s@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="F67" xr:uid="{70573D2E-310F-4457-8773-4C11A32FA361}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_s@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="F68" xr:uid="{FEBC303E-8CFC-4DC2-89C1-DBD40339EA74}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_s@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="F69" xr:uid="{D9B623A5-B9BC-46E2-97D3-F9C4DDAA37D4}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_s@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="F70" xr:uid="{6AFC67EA-C228-4338-A58B-2CE35E716CA8}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_s@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="F71" xr:uid="{7B430CA4-F6A8-48BC-964D-D7488669D4F6}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_s@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="F72" xr:uid="{7CFB626C-69B8-453D-A11D-C50E7B4BBA3E}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_s@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="F73" xr:uid="{548BC3E7-28AD-48A9-8AAF-FB845FF5E6A5}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_s@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="F74" xr:uid="{90301BAA-7A0D-485A-B503-C804B6FACBDE}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_s@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="F75" xr:uid="{7B34E469-961A-4BB0-9AA6-5E81DB02F437}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_b@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="G5" xr:uid="{48231352-3F24-4C6F-8DAA-DD29C8E8E4B1}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_b@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="G6" xr:uid="{D6181FB5-C725-4592-8BA3-01A65A794594}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_b@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="G7" xr:uid="{4EFF35F2-58F0-4772-A39D-957509211C24}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_b@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="G8" xr:uid="{70B727AA-89FE-45D8-BF72-1D9F1A25DBFB}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_b@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="G9" xr:uid="{0080A7C8-EDB8-4A40-9BBE-69BDC20597A7}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_b@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="G10" xr:uid="{588B7F89-3DEA-4284-8BC2-323EA0E7E279}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_b@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="G11" xr:uid="{F909FD88-743F-4390-AE29-D936ED7F8454}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_b@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="G12" xr:uid="{3B4A3E63-483E-471C-8C52-006B5517C998}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_b@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="G13" xr:uid="{994184E3-59E6-4533-86C6-A5380AAB0B58}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_b@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="G14" xr:uid="{0EE46764-C6DC-4276-8402-21D02C9C77A3}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_b@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="G15" xr:uid="{0A1DC90B-AC45-4E4E-940A-648C6AD3F5AB}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_b@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="G16" xr:uid="{D51DA2E4-9981-4EF0-97F0-E50CCEE11AF1}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_b@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="G17" xr:uid="{3C4E8843-D261-448A-9C20-405866E35C5F}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_b@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="G18" xr:uid="{4354C4B2-BD6C-42D6-8BED-965CB4324E6A}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_b@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="G19" xr:uid="{C7467C7B-9F36-44F2-AAFE-3F4E00F236E0}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_b@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="G20" xr:uid="{F839C8B9-C0AC-4FDF-964E-094812A1ABA4}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_b@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="G21" xr:uid="{A086C563-5720-4E8A-A5FB-780B7131ADC4}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_b@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="G22" xr:uid="{A98782A9-DB2F-48C4-9087-6000C3D43C63}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_b@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="G23" xr:uid="{6B49B083-5326-48D8-B817-6B9DBC80867C}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_b@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="G24" xr:uid="{83DD76D0-0ADE-451F-B7B6-EB9F2F77FE78}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_b@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="G25" xr:uid="{66718E8C-66AA-4998-A0F5-4E8A77750EFE}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_b@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="G26" xr:uid="{9793EB7D-6193-43AE-B1EC-90AC965E6B5E}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_b@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="G27" xr:uid="{8676818F-8ED6-49AB-9458-24A01BB83EF0}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_b@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="G28" xr:uid="{1D8E3E7A-5ED8-4F6B-9A0E-9B011B224D0E}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_b@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="G29" xr:uid="{38F91CF6-B3C8-4158-AB3D-88FD021056F8}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_b@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="G30" xr:uid="{FDC9F8B2-40EC-4F6A-8A8F-4B65A62AC033}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_b@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="G31" xr:uid="{69B13DB4-D76E-4EBE-8CEA-3EE2710FA227}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_b@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="G32" xr:uid="{5C88B108-C872-4997-BE77-DA0B09471C2D}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_b@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="G33" xr:uid="{EE662BAC-3A6E-4702-8889-623214C1993E}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_b@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="G34" xr:uid="{4121B7E9-2778-4755-8FD3-02AB8B22E004}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_b@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="G35" xr:uid="{63B09511-2741-4E16-8F1D-83422765F652}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_b@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="G36" xr:uid="{B61029D5-FC6D-4A7E-8A30-BD7D49B8EAF5}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_b@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="G37" xr:uid="{1BCFF77B-7EA2-435C-804F-294388D2556B}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_b@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="G38" xr:uid="{E24C12FE-1FE6-4CBB-B2C3-B28B3EFEBC68}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_b@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="G39" xr:uid="{87055355-C7D3-4B22-8B5B-2C80AB4B25D0}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_b@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="G40" xr:uid="{65306AB3-0E14-4FD1-842A-72EC830134C0}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_b@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="G41" xr:uid="{2305F350-E991-47BE-B0F0-9AC0EF1F1641}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_b@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="G42" xr:uid="{A79AB511-E61A-4E03-96DB-1241F1E56AF0}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_b@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="G43" xr:uid="{F545B25F-DF4B-4EF3-BFC9-1484C89E4D1B}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_b@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="G44" xr:uid="{3766F01B-C6D9-4669-8766-C48B8ABF05C1}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_b@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="G45" xr:uid="{D3EDDC28-8183-4C16-AD0D-357E6379D37B}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_b@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="G46" xr:uid="{D4C8BFA7-36B0-4D3F-8C43-D8D49B5B88D1}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_b@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="G47" xr:uid="{2D01C002-7BC2-47C2-9286-7DA88E3676E0}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_b@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="G48" xr:uid="{6AAB9313-B4B5-449D-8718-648A2A1AEE91}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_b@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="G49" xr:uid="{4C80738A-5FBE-4459-A809-818E73E1BA26}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_b@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="G50" xr:uid="{8BDE0960-D984-423C-947A-5352682F1EF5}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_b@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="G51" xr:uid="{8BBA9B41-A4D1-4D9F-B9B9-C8A5136BEAB0}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_b@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="G52" xr:uid="{32CAF674-BDC9-4088-9D2F-5B7A147DAAF3}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_b@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="G53" xr:uid="{86BC69CE-4FC6-4196-8F5B-5414CA3E5CFA}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_b@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="G54" xr:uid="{07C822FC-1325-4824-A9B4-87D6C789483E}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_b@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="G55" xr:uid="{AFBF18B2-E56A-4785-B41B-6A08AB4820B0}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_b@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="G56" xr:uid="{59916873-9F78-4DAD-B1D1-03096E70113D}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_b@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="G57" xr:uid="{70423071-489F-427F-8D9F-21F36C1407D6}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_b@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="G58" xr:uid="{68A8EF3D-914A-4E22-AA45-2D7D452637EE}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_b@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="G59" xr:uid="{C10BF419-73C8-492F-8026-41D218D2D2BB}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_b@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="G60" xr:uid="{F349F2AE-965B-4E53-9D2E-814EA5F76269}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_b@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="G61" xr:uid="{A9B3A047-6771-4745-BF14-1B880769C0F6}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_b@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="G62" xr:uid="{523B94F0-D93F-4834-929F-16B1031C9D8E}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_b@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="G63" xr:uid="{69A76E00-E2B3-4660-9E08-537E98F7220F}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_b@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="G64" xr:uid="{80DCEE77-ADD0-4F42-BD3A-999299B5E3BE}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_b@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="G65" xr:uid="{081ABA92-756C-4D1E-982D-C53D13D86392}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_b@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="G66" xr:uid="{0CC51F14-0EE2-4C09-B3DD-8DCE62376441}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_b@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="G67" xr:uid="{1A58B0E3-6C85-489F-A2FC-C278AE8308CF}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_b@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="G68" xr:uid="{2CC25D73-D809-49FE-B181-649F36E4CED4}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_b@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="G69" xr:uid="{48D6D158-A4BB-4092-A8DC-BE3E704184DC}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_b@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="G70" xr:uid="{D0BDD16D-BA18-49CA-83E0-C7168778A4D7}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_b@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="G71" xr:uid="{1503E076-7E00-4270-81CE-AA6E003A24F2}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_b@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="G72" xr:uid="{FDBE45AA-705F-4374-A341-1D74AF5FDBB3}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_b@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="G73" xr:uid="{F685E176-51BA-48F0-AB13-4789784B5B2A}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_b@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="G74" xr:uid="{0B45B6E0-282E-42DE-8202-41F24D822A5D}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_b@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="G75" xr:uid="{A294D21B-00D0-465E-8B11-CD8766BC06CA}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_a@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="H5" xr:uid="{56E63D15-0BCA-401C-B19B-06D447A12AB6}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_a@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="H6" xr:uid="{1900609F-9A71-46E0-805C-E41FBCA4370C}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_a@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="H7" xr:uid="{24E1F8CB-09CD-474F-AFB3-1B78CCDF3B19}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_a@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="H8" xr:uid="{688FC748-44FE-482E-BF0C-AF5D909B385C}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_a@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="H9" xr:uid="{1D36F3D8-B3D2-4A76-B916-A7EF3D40C5E4}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_a@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="H10" xr:uid="{856E70BC-AF04-45FA-9BAC-49247E5A4BD2}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_a@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="H11" xr:uid="{7F80F3A9-9C21-4A07-8B79-6DB0711D1E1B}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_a@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="H12" xr:uid="{51726A06-9979-4B8E-BA2C-C01A462362E3}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_a@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="H13" xr:uid="{0BC1D620-D918-4BFE-8C11-BD1F3F1005E2}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_a@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="H14" xr:uid="{49B7BDE1-BEC1-4501-A928-1A84AA96B3FB}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_a@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="H15" xr:uid="{2A36F1A0-E25D-41A2-B55B-CB8CE573911D}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_a@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="H16" xr:uid="{415C7D32-4C1A-4C2D-B5A6-4039BD6E984D}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_a@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="H17" xr:uid="{5E01D48C-831E-4095-992D-E9D0D2EDE2E9}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_a@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="H18" xr:uid="{D14165E0-8CAD-4E88-9A47-53164E915D43}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_a@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="H19" xr:uid="{17C26C12-09EF-482F-A73A-14EFE5D411B9}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_a@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="H20" xr:uid="{69756282-1CD1-4F4E-984B-76EBFD5E2FA0}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_a@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="H21" xr:uid="{0BE7C631-D5AE-495E-BD02-DA16C46BF4E6}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_a@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="H22" xr:uid="{83E817B8-8189-417F-985A-F9ACBA908257}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_a@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="H23" xr:uid="{45CF15BD-104C-44DB-9BBF-B11397ABCFE6}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_a@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="H24" xr:uid="{CDC04F10-6327-4A44-9AA3-BA77249DA373}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_a@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="H25" xr:uid="{22656376-21DF-46DC-893C-2D701D9984B8}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_a@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="H26" xr:uid="{C3C1812A-9893-41E6-8EBB-F726A65368CD}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_a@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="H27" xr:uid="{33D396CB-5E60-46FE-B4F8-1F122C4942BC}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_a@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="H28" xr:uid="{DE0C6CCC-034B-4506-ABE4-E6F7FC5A1C66}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_a@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="H29" xr:uid="{8D6DDB5B-167A-4D38-9849-1D22D1A2D2CE}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_a@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="H30" xr:uid="{A07BD6C7-D46D-4FD8-BEAE-0C205E4C4872}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_a@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="H31" xr:uid="{0119C5B2-7669-410A-A232-D889FDBE00F7}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_a@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="H32" xr:uid="{545DDBF4-1A43-4477-BDFB-A9EC82E7D8B9}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_a@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="H33" xr:uid="{863014BA-3ED2-4858-B74A-D6C144D3DC8A}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_a@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="H34" xr:uid="{15EFAEE8-12CD-46D6-9219-EC7239B38F0A}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_a@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="H35" xr:uid="{31D19246-DB7E-4AFE-9CD4-ED2A154A38C1}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_a@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="H36" xr:uid="{EB843FDB-C4D1-4D0C-83C2-F7353C5F98C5}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_a@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="H37" xr:uid="{D5397276-8B82-4B5C-8EE8-30087459E26A}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_a@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="H38" xr:uid="{1FA636A9-4D9C-4B37-AC93-43538915E67F}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_a@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="H39" xr:uid="{E09CCF4A-CD7F-4033-B9E4-1F87D402151B}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_a@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="H40" xr:uid="{1F9706F8-C91C-4E37-B28B-957483EF9DB1}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_a@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="H41" xr:uid="{4B53A2AA-1E99-4D0A-B741-F89767E1C51C}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_a@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="H42" xr:uid="{0CA9A7F6-4272-4963-9D7B-FE5D16297639}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_a@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="H43" xr:uid="{CB34E99D-29D1-4269-B9D2-566B43E7C1D6}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_a@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="H44" xr:uid="{4945F511-01FE-4249-8311-A463902953F4}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_a@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="H45" xr:uid="{1239B257-676B-488F-AA97-7F2312C1B32E}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_a@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="H46" xr:uid="{C58DB5E5-140C-4548-ADA4-23D64A659FEE}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_a@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="H47" xr:uid="{B562DE2D-8A39-462D-94FA-F3DC4E8949DE}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_a@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="H48" xr:uid="{8D5D7A06-008C-4437-BF12-E9FB84987404}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_a@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="H49" xr:uid="{706739F1-86A5-4906-B009-C9D2711A8A52}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_a@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="H50" xr:uid="{F0BF6C4E-63CA-4D46-A305-1C302C188D99}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_a@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="H51" xr:uid="{6E072655-B2A1-4EEF-9485-C2F10B412402}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_a@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="H52" xr:uid="{742610D3-6DCE-48BB-BF74-D2BF72DDC452}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_a@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="H53" xr:uid="{1D31A199-E88E-4107-B65E-12B97A3A5794}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_a@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="H54" xr:uid="{A56107DF-B44B-4FE2-B499-4031AA3560DA}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_a@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="H55" xr:uid="{839BA93C-2FC7-47D6-AB7C-0F80668D803C}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_a@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="H56" xr:uid="{7EBAA039-E038-4B8F-9B8A-606191BABB0D}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_a@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="H57" xr:uid="{3F378A71-F9DC-4264-84A7-1BD01F0D9678}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_a@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="H58" xr:uid="{57EC2353-7526-43B8-828C-CEDA6E7B9BA2}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_a@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="H59" xr:uid="{CB42ECBD-C6BF-4F09-A37D-719C20E6BDA3}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_a@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="H60" xr:uid="{42CC3E93-11F2-4A8E-823A-2C2E039DBF67}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_a@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="H61" xr:uid="{B211BC84-90C3-4DCF-A337-DF74EF8D826A}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_a@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="H62" xr:uid="{486BDA20-A1D6-4F88-9A15-362C0AF2EEEC}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_a@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="H63" xr:uid="{91815483-137C-42E7-AFBC-3A8FF8FFDADA}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_a@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="H64" xr:uid="{C0B6E978-9494-4DA3-9B23-B063A3CCADB9}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_a@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="H65" xr:uid="{11DE8137-7EFC-4AB4-A9D1-FB2A41993C81}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_a@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="H66" xr:uid="{7BEE5F53-6696-4AFE-BF20-C24995153056}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_a@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="H67" xr:uid="{2559083A-C2D7-4208-96AE-AFD4FB33484D}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_a@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="H68" xr:uid="{A6F02790-8E58-4F24-BD16-D08BFB345EA4}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_a@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="H69" xr:uid="{8BF4F567-3B61-4DB0-9904-55390DCF0A05}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_a@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="H70" xr:uid="{0EDC9000-06CF-465B-8B29-A48A3E2A14F6}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_a@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="H71" xr:uid="{83F4E2F8-8299-47EC-8CAB-8A7A80E794B5}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_a@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="H72" xr:uid="{BCEFEFFC-8A58-4B85-8CFE-82770FF85A52}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_a@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="H73" xr:uid="{1F71226E-C2A9-40EE-A793-E2FBBB7CAB0B}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_a@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="H74" xr:uid="{FC181C71-149B-4693-9876-BD6526655520}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_a@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="H75" xr:uid="{AB84726D-64BB-4747-BE2A-CBBDD011A3C1}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_l@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="I5" xr:uid="{2D4A9A1F-522D-4483-82E2-41FA1F7A4764}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_l@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="I6" xr:uid="{3C795C11-5B3A-4DD7-9F14-FB8F6C8ACFA2}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_l@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="I7" xr:uid="{634B88B9-97CC-4DA9-B32F-8134832EC170}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_l@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="I8" xr:uid="{F4CDB439-6E56-4166-B133-8E13DE519684}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_l@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="I9" xr:uid="{9A96CBC4-C2AB-4683-9DB7-1187A4251FD7}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_l@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="I10" xr:uid="{08B1C053-EDAF-47A2-BC0C-D5B2208E0136}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_l@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="I11" xr:uid="{34F52088-9A03-4E2E-984B-438DAE49865B}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_l@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="I12" xr:uid="{1910EF04-9EFB-4914-BC57-11877925F257}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_l@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="I13" xr:uid="{3FEC5704-65BF-41D4-8F64-BF6EEA686269}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_l@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="I14" xr:uid="{99C0040F-1ADE-47F5-91CC-C34AB88247E6}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_l@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="I15" xr:uid="{09E531C1-95E9-422B-91EA-720C066B3E77}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_l@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="I16" xr:uid="{B47DE94D-8718-4000-BE37-27043328AF53}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_l@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="I17" xr:uid="{6604ABC5-8690-44A3-AA87-9D393A200434}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_l@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="I18" xr:uid="{6E4BB6EB-6A30-4A47-95D0-4344F0D45C86}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_l@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="I19" xr:uid="{8904149B-06CD-49E6-9B01-1E06A96D20DA}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_l@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="I20" xr:uid="{F6D3B1AE-37FD-4225-803D-14716BAA2516}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_l@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="I21" xr:uid="{9CD374AD-B22C-4846-BCF3-65FC1694670A}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_l@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="I22" xr:uid="{D9389BB8-747B-4F6F-953D-8BBAE49F7AB4}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_l@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="I23" xr:uid="{71E9D7B2-221D-4B44-A422-B262C20C7220}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_l@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="I24" xr:uid="{61B9325D-CE48-407F-A5A0-25E63AF0BD35}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_l@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="I25" xr:uid="{E9337AF5-7D83-48D5-9371-9DB569CD7768}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_l@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="I26" xr:uid="{03B960C2-4F4C-417D-9FB1-DF28B1A368FE}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_l@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="I27" xr:uid="{5EB07BD5-8034-4D9D-8ACD-616C4CBE8551}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_l@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="I28" xr:uid="{9B4F6E1A-136B-44FE-94B3-AA17DD4AF671}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_l@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="I29" xr:uid="{DB9B25EA-60D7-4B2A-8E75-1FAF21B0BF13}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_l@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="I30" xr:uid="{72FD631E-FB91-4E26-9C23-A6057AFAAA3D}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_l@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="I31" xr:uid="{8C7BA9F8-1E59-4E52-BA9A-879826C1076E}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_l@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="I32" xr:uid="{AC525563-3774-42F0-AA6F-02E8B18C1507}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_l@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="I33" xr:uid="{3F570D4B-AC0C-43F6-B97A-9AB3810E084A}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_l@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="I34" xr:uid="{B0D0A2FE-83A0-4604-B4A2-534A3ECF1192}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_l@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="I35" xr:uid="{3FB1A34F-2708-4BE5-B0AF-ABA46077535C}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_l@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="I36" xr:uid="{12134E20-2416-4ED3-95D6-85F339E7B678}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_l@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="I37" xr:uid="{163FDA27-2879-468C-B038-2EAED888EF49}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_l@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="I38" xr:uid="{2CDD65C7-5293-4905-9BD0-22F5B284FC37}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_l@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="I39" xr:uid="{862A6AF9-878A-4580-BBCD-270282C4FCED}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_l@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="I40" xr:uid="{036EA3E4-B700-49BE-A04A-41A922FCAB2F}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_l@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="I41" xr:uid="{98C595DC-C4B4-413E-94D9-7C6224D9AE79}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_l@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="I42" xr:uid="{33E06BFB-97F2-47B1-AE5E-CC425AC7F4B0}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_l@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="I43" xr:uid="{EB4B27E4-24B3-4626-BC70-8A7C56DA9713}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_l@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="I44" xr:uid="{11BE047F-7782-4F07-A68C-CBFE93406A4E}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_l@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="I45" xr:uid="{725E1462-ECEF-47F0-B505-7E4B239260AA}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_l@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="I46" xr:uid="{8CB051F8-56B5-4225-8056-5DDFEB6C7BD0}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_l@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="I47" xr:uid="{99489E82-A60C-4F36-9175-4890445ED088}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_l@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="I48" xr:uid="{0253114F-483D-456D-86F3-FED9CB5215EE}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_l@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="I49" xr:uid="{7499022F-236F-4B30-AFFF-9E62D9DA7CBF}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_l@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="I50" xr:uid="{0455B8EA-F5D8-4981-807A-0A4771C9DD80}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_l@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="I51" xr:uid="{80B6DAEF-9EBE-45D4-BD72-0370421CED27}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_l@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="I52" xr:uid="{27E216E3-D405-48BD-B78B-00F8759D179F}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_l@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="I53" xr:uid="{FFEF5BB4-AE95-46A8-999F-63CBF33E152E}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_l@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="I54" xr:uid="{BC68A623-8084-472E-B01D-077F92080C91}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_l@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="I55" xr:uid="{D2C8EF60-C77D-4977-B351-7095624266E6}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_l@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="I56" xr:uid="{7D0D8587-3244-4EA1-8E6D-735D061516E9}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_l@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="I57" xr:uid="{B9637142-3B94-48B5-BB46-169AFF5FCE4E}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_l@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="I58" xr:uid="{F7796B09-7307-447B-B1E9-C4355FA95265}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_l@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="I59" xr:uid="{17A98EB3-F58A-4C2A-93E4-716B40FAF725}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_l@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="I60" xr:uid="{727AB550-D892-41AD-9FB4-86C700E3831A}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_l@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="I61" xr:uid="{BFE044E0-C000-4D2E-B129-4B819134FEA1}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_l@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="I62" xr:uid="{20E79A47-41AF-410F-8854-1ADEAEF45C7C}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_l@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="I63" xr:uid="{28441146-67F8-4452-A922-646F67EA5BEA}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_l@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="I64" xr:uid="{677841BE-3CE6-445E-B18E-F7A0CB9CC8F5}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_l@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="I65" xr:uid="{D1BEFB59-05BD-4E74-8EBF-D78F89D39E2C}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_l@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="I66" xr:uid="{826B0B9A-F93C-4952-B0D0-AF3AC32EB420}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_l@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="I67" xr:uid="{B7819D9D-4F54-4A88-B33F-3C7B62252A2F}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_l@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="I68" xr:uid="{90252C18-08F8-41EF-A5A8-7A1FFA81566A}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_l@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="I69" xr:uid="{1C652E36-887A-402E-AD33-1441297FA02E}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_l@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="I70" xr:uid="{AC622217-0281-450C-925B-E48C07C3B590}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_l@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="I71" xr:uid="{53B6B944-748F-40CB-A3CA-D8D2417F99C2}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_l@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="I72" xr:uid="{ACA76A8B-A929-4795-BE06-48320E3ACE6E}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_l@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="I73" xr:uid="{DEC63F93-424A-44AD-8CD1-CF4B2E5D9B0D}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_l@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="I74" xr:uid="{F4915C11-7A14-4866-9429-757308AAC556}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_l@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="I75" xr:uid="{902DF190-A4B9-40E7-AD5E-7E2C2F1844A4}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="J15" xr:uid="{B91C58A2-A23D-4385-89F3-EEA85A6F9A5D}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="J16" xr:uid="{27142966-B698-4B51-AE4E-9EC54BD545CC}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="J17" xr:uid="{411C76FA-F56F-4981-8618-FEAA1B5B2DE4}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="J18" xr:uid="{E03DB8B6-5AC1-490D-BB52-EFECDD2FFF87}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="J19" xr:uid="{05710963-C62A-4058-8EB6-AEE579C46099}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="J20" xr:uid="{D6C90CDC-08D0-4F46-8069-227676E30B6E}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="J21" xr:uid="{DE8A3F10-AAC5-42EC-A146-D178FDA687C0}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="J22" xr:uid="{4E87A4EA-A994-490D-8678-4109BD277407}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="J23" xr:uid="{A175A9A5-1E79-4476-930E-7C73F30DF56F}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="J24" xr:uid="{B7556A73-FBE5-4A93-ADBA-4EF55A38B7F4}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="J25" xr:uid="{B86A94CD-C00F-4783-859E-BA7F9053C4CB}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="J26" xr:uid="{65DB9991-F319-4404-BBF1-2746E75DFDA7}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="J27" xr:uid="{EBB2975F-DDE7-4A8A-BD9D-29986D0E98DC}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="J28" xr:uid="{87CCB2F5-7E49-4A69-8FC4-CE4C044B0937}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="J29" xr:uid="{DDB9C301-06C3-484C-954D-DFF2E2468621}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="J30" xr:uid="{B4E0BFD2-003A-48CE-9222-655765A1FD3B}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="J31" xr:uid="{B5A2061D-0DA3-441D-B6A3-D72EF871FC16}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="J32" xr:uid="{EC7BEEF6-CF34-4CCA-A22D-98E491FD9A24}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="J33" xr:uid="{D04458ED-032A-4BB9-BFD6-ACA2696C508E}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="J34" xr:uid="{381451B0-47C2-4857-882A-05FDDB74FA51}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="J35" xr:uid="{357B755C-A827-473A-81B6-37B5D613A244}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="J36" xr:uid="{4900EA73-18D2-43C6-A6F2-A5194FBF061A}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="J37" xr:uid="{5D27C7F9-6830-4674-8A9D-2669014E456D}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="J38" xr:uid="{76A216AB-E11B-4420-816C-77BA439F2FD1}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="J39" xr:uid="{97E8B93E-2855-4916-8CD0-F932749D9A36}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="J40" xr:uid="{E5AB1B7F-14C6-48A8-81EC-931C9AE8EF11}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="J41" xr:uid="{82EBD561-088A-4939-9CB7-15B1F4FCEC19}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="J42" xr:uid="{9B8A9819-D161-4563-9511-25107DDD0DA3}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="J43" xr:uid="{7953ECF4-9A47-4000-854E-47BDBE763B0C}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="J44" xr:uid="{C75264DA-B764-41D9-AA9B-A57E1589828D}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="J45" xr:uid="{520E6F8E-F523-4F9C-BED6-D46EFC73B52B}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="J46" xr:uid="{10AE8CAE-CD2A-4A23-AEE7-165A32E03E66}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="J47" xr:uid="{B5EDF553-91F8-4D0F-95A3-F68F9BC10ABF}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="J48" xr:uid="{39B1CE29-91E7-4CD9-A918-CB2F7A66AF2F}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="J49" xr:uid="{09E3E6D1-4544-4D86-BD24-E16DCEBCBBE5}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="J50" xr:uid="{95E71D58-A000-4C5B-BB65-7F86428EB821}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="J51" xr:uid="{02BFC61D-5F44-43D0-B3F8-A485A68B0CA0}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="J52" xr:uid="{F1151408-9269-48BB-AFF8-BD8BC4A6C40A}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="J53" xr:uid="{7AF4A78D-404D-4080-B87B-BC4B2F74C0B3}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="J54" xr:uid="{4C6AECB9-1F60-48D4-873F-CA6EE295D82A}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="J55" xr:uid="{AF8035A2-9881-4C25-88FE-2EB84A961706}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="J56" xr:uid="{3388D565-30D4-4E99-BE57-BAD63A7A0314}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="J57" xr:uid="{B13CFF7B-F6F9-487A-A00C-ECEBC73B003F}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="J58" xr:uid="{F337165E-F095-4E6A-BAF4-9E50632860E1}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="J59" xr:uid="{1A4BD0C1-5467-4ED5-97E8-C0DD63E67C2D}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="J60" xr:uid="{965A6FA5-266F-434F-89C8-422F653199B1}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="J61" xr:uid="{F585F27F-11BC-44E5-A18F-FE95C87588BC}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="J62" xr:uid="{601659D6-9E74-4C36-8252-ECA61C7DF925}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="J63" xr:uid="{21874BA4-167C-4B7E-8B03-F25238E97EE0}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="J64" xr:uid="{C1DFF0C2-63DE-4C59-8154-451CA0D21EAE}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="J65" xr:uid="{9A165468-822F-4F29-90AF-E09CD5EA49C2}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="J66" xr:uid="{4A81A81F-041C-44B6-963A-A8C413F422E2}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="J67" xr:uid="{8A038890-FEF3-4EAE-99DD-3B2DB8606044}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="J68" xr:uid="{4BCAAD44-03EC-4317-A4E1-2BE61AB3CA44}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="J69" xr:uid="{BA528656-F76F-4163-A657-86407186F7F8}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="J70" xr:uid="{106706EE-8530-4239-A0AB-85155378CE9D}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="J71" xr:uid="{3D1267DE-3647-4F95-A437-0086097719BF}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="J72" xr:uid="{83A84971-A572-4F7F-AF98-FB34E273A4C9}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="J73" xr:uid="{DA8E7689-F404-400C-A5C9-5F41AE4EA7DC}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="J74" xr:uid="{A275153D-4F2D-465B-BFA8-CB2033F6163F}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="J75" xr:uid="{54D6ED36-397E-47C2-B219-329E19714046}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r1@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="K5" xr:uid="{4B7BABBD-50B2-4752-85D2-BD81356C343C}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r1@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="K6" xr:uid="{84720965-0DB9-496A-8149-FEB0D603887D}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r1@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="K7" xr:uid="{F4D0831D-79F0-4D8F-A9B7-0FE463E67B72}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r1@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="K8" xr:uid="{682C608E-8A95-467B-8A49-E57602F2C584}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r1@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="K9" xr:uid="{9AB4B665-AEFC-4B7E-8250-9A126DB051B3}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r1@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="K10" xr:uid="{D18C854D-CEC7-4855-980C-CFAFE9C9628F}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r1@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="K11" xr:uid="{63D18F28-3C3D-4E8A-8392-FFCCC4A801EF}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r1@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="K12" xr:uid="{EFEC2006-D145-4DF5-8734-5DC97DD88600}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r1@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="K13" xr:uid="{09B7B625-05BE-4F5F-BB9E-BD03CDABA77E}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r1@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="K14" xr:uid="{F3F7FB24-2FB5-47F5-BCC7-E3A7C876A50B}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r1@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="K15" xr:uid="{5A35D2F8-B9D7-47E7-B832-E14F76AF33D6}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r1@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="K16" xr:uid="{384B5338-287E-4D7F-BD01-C35BD008E851}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r1@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="K17" xr:uid="{39CB325B-D12B-43E4-9142-BED09342FE8F}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r1@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="K18" xr:uid="{43B1983A-045B-4622-8973-6E74F42006A6}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r1@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="K19" xr:uid="{A8759723-247C-444A-ABE4-41171AEC4FC3}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r1@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="K20" xr:uid="{6D0B27FE-9936-4E23-8BFE-8AF3A30E7ABE}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r1@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="K21" xr:uid="{78E17AAC-16EE-472C-AA96-E1C9669C679F}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r1@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="K22" xr:uid="{18CE5DDA-31D3-483D-9968-0BBCC2C4898D}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r1@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="K23" xr:uid="{03BE87D2-DD12-4262-9E8F-E0BDB747328B}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r1@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="K24" xr:uid="{0911206A-829B-4B42-800F-1BA4DF23A105}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r1@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="K25" xr:uid="{244A2373-43DD-45CC-8F8E-C7FAD44F897B}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r1@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="K26" xr:uid="{C922CA16-BEB6-44D5-80AD-FE173E549DFF}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r1@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="K27" xr:uid="{A674ECB2-32CB-42FF-8EDE-805E0B04B089}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r1@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="K28" xr:uid="{E51C8CAE-9193-4490-B8BB-68CC96037462}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r1@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="K29" xr:uid="{2ED33CCC-0856-4F0C-8377-7C5012CEB42A}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r1@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="K30" xr:uid="{7D4835CE-F71B-4A49-B288-0B38FE5B01C1}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r1@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="K31" xr:uid="{C8484E8B-3C25-49FB-8847-A120A9EDF4BA}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r1@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="K32" xr:uid="{D5E8F5BD-F158-40CB-AD7A-952AFF53B475}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r1@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="K33" xr:uid="{76D8D3D0-5F6A-4B38-9459-3F11B206E9F5}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r1@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="K34" xr:uid="{8A3B7CBD-EA24-4246-BB25-5F7363E31D5A}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r1@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="K35" xr:uid="{42479001-5215-4975-9FB6-A1A8274BE09B}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r1@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="K36" xr:uid="{9E99596C-B2FD-48CB-B898-6AECCC73A2CB}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r1@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="K37" xr:uid="{B500FB39-9032-43DB-A1C4-EEF883EF7866}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r1@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="K38" xr:uid="{09B90DEF-A851-4B25-963D-34699B89F73A}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r1@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="K39" xr:uid="{D935BD4C-F3F1-418B-8653-F2155EB13163}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r1@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="K40" xr:uid="{03F19FD8-0535-4FBE-8E2D-F5FB8B8B9C4B}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r1@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="K41" xr:uid="{4A8AE558-B4A2-4984-ACB0-E95650555C41}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r1@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="K42" xr:uid="{D028C57C-0FE5-4C10-B3A3-FA5016EB20B0}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r1@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="K43" xr:uid="{97BC1120-5971-4FA8-AB1A-B782BE92B9C1}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r1@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="K44" xr:uid="{BB751319-085B-452E-993C-92AA748B353B}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r1@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="K45" xr:uid="{C62908D4-8453-4060-BB2C-F1E89A9AE59A}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r1@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="K46" xr:uid="{C0DFDE56-51C3-445E-AF67-EE509347DEED}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r1@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="K47" xr:uid="{B3BAE433-E0F4-4D83-AE80-34DA18FF39AC}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r1@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="K48" xr:uid="{1B83E096-AA8D-4A1E-B57A-BA7BF6784A26}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r1@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="K49" xr:uid="{CAFFA203-671B-4A6D-93D0-6CC12749BC46}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r1@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="K50" xr:uid="{747CD609-30BA-4101-84F7-3AEBFA9E4668}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r1@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="K51" xr:uid="{314C1988-09E6-43AA-8CE8-42DA77965D59}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r1@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="K52" xr:uid="{A6B76A24-AB53-4C65-BF4C-AB0ACBE20B7E}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r1@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="K53" xr:uid="{9DC3EF34-5B95-4D42-8D00-4578597B44BC}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r1@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="K54" xr:uid="{F93096C5-322C-499E-B23B-8A3C2D6B2BAC}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r1@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="K55" xr:uid="{81E1A32B-8185-4798-A026-1A4324FA4CB2}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r1@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="K56" xr:uid="{6EF42075-96AB-4152-BE8B-2CDF8DA42AC9}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r1@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="K57" xr:uid="{C5CD4D39-8423-47C5-BCC9-E91FA6419F3E}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r1@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="K58" xr:uid="{149337CA-9046-4806-BA64-E418421532D4}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r1@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="K59" xr:uid="{7E8162F7-4AE3-4523-9615-BD237592304F}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r1@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="K60" xr:uid="{C5334DE7-FB14-45F6-98DB-1E2174DD286B}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r1@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="K61" xr:uid="{2A542C6B-4C00-42D4-86F4-3CCF741D3D20}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r1@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="K62" xr:uid="{991B8978-E4BA-497F-A949-1B336080862B}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r1@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="K63" xr:uid="{86D2529F-42A3-4791-A6FA-A4985EA80B92}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r1@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="K64" xr:uid="{29C86D8A-44E6-40C2-BD9D-53CB90DBB793}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r1@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="K65" xr:uid="{854C437E-D440-47BD-B54D-2E0400FF5D1F}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r1@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="K66" xr:uid="{94A16E10-ED14-4838-88BA-F35FBE3EA182}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r1@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="K67" xr:uid="{E700118D-60C3-41BD-9FF7-06226E7EDB2B}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r1@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="K68" xr:uid="{608FDD40-DD5D-410B-A102-2636D19C168F}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r1@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="K69" xr:uid="{41C096E6-0924-435A-BF19-55DBA6818F85}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r1@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="K70" xr:uid="{4E3F7920-8387-49FE-BE5E-FCF26110D09E}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r1@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="K71" xr:uid="{94C7D42A-4992-44D9-B92B-B78EC5B560A9}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r1@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="K72" xr:uid="{9865BEF0-5B3C-467B-834E-C9F7683A9169}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r1@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="K73" xr:uid="{C7BBB022-56BC-4E6F-B9F3-581D055B21CC}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r1@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="K74" xr:uid="{FF69735D-5C22-433E-ACB0-253CA76DA08E}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r1@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="K75" xr:uid="{ECA42444-9124-4925-868A-5C2E54C4892B}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_DD@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="L5" xr:uid="{6A7E1FAA-35F0-4632-837F-EA530F6D1F67}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_DD@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="L6" xr:uid="{B54CBF7E-1110-4744-B066-973A33632AF4}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_DD@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="L7" xr:uid="{D3FB20CC-4AC2-4621-AE45-F513014714A9}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_DD@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="L8" xr:uid="{F0CF4E46-3C5A-42B2-A5AB-AA32ADBC6428}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_DD@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="L9" xr:uid="{E3A43753-72F4-4400-9D43-73CCFF489F0B}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_DD@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="L10" xr:uid="{C7A12EDC-BB1A-41C7-9056-733456E697F3}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_DD@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="L11" xr:uid="{A52B70B0-1428-4E45-8BCE-15442AD5843B}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_DD@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="L12" xr:uid="{5D7171A6-7B16-498E-A329-4A8D6FDBD555}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_DD@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="L13" xr:uid="{D2FE6614-C3E2-40D3-80D1-C09A70777BBC}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_DD@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="L14" xr:uid="{5A33C0D9-76D3-43F8-86B0-4AF37057F861}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_DD@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="L15" xr:uid="{619EAD4F-01ED-48A1-8528-83AA3EED6E43}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_DD@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="L16" xr:uid="{96D3CC58-47C1-40C7-A693-B9DF67D3BC0E}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_DD@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="L17" xr:uid="{9AC774C5-672A-409C-9139-44602FA98007}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_DD@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="L18" xr:uid="{09DE6571-76FA-48D5-98FB-6C37DA73AB5F}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_DD@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="L19" xr:uid="{5818651F-D501-4CAD-8C20-1E408EB38088}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_DD@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="L20" xr:uid="{C528F54E-EBA5-4E83-871D-A53443BCED93}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_DD@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="L21" xr:uid="{302A07F9-5E9B-462B-8F32-C14D2E436237}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_DD@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="L22" xr:uid="{514156AE-30CA-49B5-8ED8-8B5F2B91A439}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_DD@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="L23" xr:uid="{BB01E9A1-66C3-4138-B0CF-24803122E00E}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_DD@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="L24" xr:uid="{7A6EA4E3-F719-4466-A6FF-F3420C68171A}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_DD@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="L25" xr:uid="{51FA6A36-A992-4FE3-BDCE-97A7E9B2D895}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_DD@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="L26" xr:uid="{AE3F18F3-F7A2-4C90-B74E-557A34D59256}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_DD@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="L27" xr:uid="{136F9F3F-740A-4D99-860A-EF5DC43C831A}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_DD@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="L28" xr:uid="{A8750247-A509-4C16-9F7F-3EF52E56208A}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_DD@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="L29" xr:uid="{0D00108F-5C80-4834-B692-2F252949A0D0}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_DD@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="L30" xr:uid="{44578007-B5B3-409F-B4EF-B932CDFD7427}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_DD@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="L31" xr:uid="{08FB7A9C-C4F1-4AA2-BF31-AE240233F194}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_DD@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="L32" xr:uid="{B8AD4BCF-1F88-4E01-8A6D-D28D6F845D00}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_DD@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="L33" xr:uid="{FB761483-135E-4B14-9991-8224EA320DBE}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_DD@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="L34" xr:uid="{9D9FF609-A098-47B1-8862-A4D1DA4836AA}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_DD@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="L35" xr:uid="{701A9C7E-5C9C-46F2-9E12-0E14B0FAABBD}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_DD@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="L36" xr:uid="{92D8A879-EB1D-4069-BE6E-E08D32A3974E}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_DD@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="L37" xr:uid="{EFB1569A-D8E4-43CB-81BA-244DE7D63BEB}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_DD@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="L38" xr:uid="{D6F95D04-A44D-4134-8829-6C0AFFD440BE}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_DD@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="L39" xr:uid="{D0E015D1-751F-4C39-81BF-64791F211857}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_DD@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="L40" xr:uid="{5D8B595B-CE6C-4CEF-90B8-FC9454345B8C}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_DD@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="L41" xr:uid="{5DB54D3F-370E-4A4B-A40A-E14355A95C79}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_DD@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="L42" xr:uid="{C25A089C-5FE8-485B-8BA4-A940D33918F5}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_DD@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="L43" xr:uid="{593DCC2E-9934-4A94-8657-436438B29944}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_DD@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="L44" xr:uid="{7A0FD883-7937-4D2C-8581-1F1B7A165348}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_DD@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="L45" xr:uid="{A539ABDA-7827-4E74-8749-30DEE9B7E3B9}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_DD@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="L46" xr:uid="{C4ED9FC2-E0D0-4122-9EB8-DA8AE753F3BE}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_DD@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="L47" xr:uid="{F3CA2CB8-FA62-4304-81C5-46F90DC248A6}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_DD@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="L48" xr:uid="{3215BE87-36E2-4948-B698-10C408F4553B}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_DD@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="L49" xr:uid="{4B67B346-5E27-43F3-BCC6-67A04CC165EA}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_DD@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="L50" xr:uid="{B41071E1-C45A-45B0-9B07-B4AAA009784F}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_DD@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="L51" xr:uid="{EC6A6A82-9B9A-4872-B970-EA023D11516E}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_DD@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="L52" xr:uid="{30C25675-762D-4E6E-8EC8-0CA230732750}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_DD@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="L53" xr:uid="{6A98A617-94C2-45CF-A749-77459650550A}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_DD@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="L54" xr:uid="{4B88A304-2112-4AD9-87EB-2603B8197468}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_DD@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="L55" xr:uid="{68591083-7AC4-4B64-AF56-3C95D37D31F8}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_DD@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="L56" xr:uid="{E7D1221A-EC15-477D-AA84-6EEEF3C21050}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_DD@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="L57" xr:uid="{69E519CA-E818-4404-85F0-1E0970CB162E}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_DD@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="L58" xr:uid="{EF5C74CF-E6E4-40F2-A434-950A311C0F7E}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_DD@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="L59" xr:uid="{4CBF9374-C475-4C53-8C36-C219AC5AFE2F}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_DD@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="L60" xr:uid="{1107D7B6-9D7B-4063-82B8-F48DB597C9C6}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_DD@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="L61" xr:uid="{20F0DB10-A9FB-4EBA-B0B3-2AE76123C281}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_DD@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="L62" xr:uid="{F8358F25-9102-42BB-AF78-7A9979CCAB79}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_DD@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="L63" xr:uid="{204788B9-73F6-4E96-A46E-4CF379922ECB}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_DD@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="L64" xr:uid="{3495A0A8-18B1-430C-A42C-34C98ED2A8E8}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_DD@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="L65" xr:uid="{1209B825-5B26-4951-A277-BCB6CD7B39B4}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_DD@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="L66" xr:uid="{2C4ED228-0B69-40C1-A574-22DA78FD8D7A}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_DD@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="L67" xr:uid="{5A9A91AC-43B7-468B-9E05-BE79E1A08BBA}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_DD@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="L68" xr:uid="{110BA59F-6689-440F-BB29-A10914C84C49}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_DD@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="L69" xr:uid="{01DA7CF1-D23D-4369-958F-EF98B58C5494}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_DD@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="L70" xr:uid="{62735515-E8BB-4898-8AEE-2BFBD61FFC4A}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_DD@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="L71" xr:uid="{8E8F4540-F3AF-46DE-B5D0-A27DDD687154}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_DD@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="L72" xr:uid="{5816D31E-8121-4316-A094-D9E409E6487C}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_DD@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="L73" xr:uid="{F62D08F2-B066-46C2-B3FB-D93803CC1277}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_DD@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="L74" xr:uid="{B63A0BF8-DE33-4FD0-A696-A39D756A48E0}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_DD@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="L75" xr:uid="{F870D66F-55BE-4C9E-82A6-63D4AEE5BC91}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_e@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="M5" xr:uid="{98A32690-0FE0-41AD-AC91-F53921C79683}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_e@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="M6" xr:uid="{DCC1633A-A352-4EE7-959C-C6D4BC30D6F0}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_e@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="M7" xr:uid="{22A3AA0F-6A8C-4B80-A6CF-96AC6003613E}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_e@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="M8" xr:uid="{9682D723-F813-48EB-9A60-E81EF42FD0F1}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_e@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="M9" xr:uid="{730D2E6D-117F-4A70-AB4D-36E1B4969DB7}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_e@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="M10" xr:uid="{16CA42FB-CB8E-4202-A796-B012767077FC}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_e@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="M11" xr:uid="{5538CADD-588D-425D-877F-F52A103E5C7A}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_e@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="M12" xr:uid="{3B1B2DA3-2314-42B8-B66F-21DC753BEE03}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_e@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="M13" xr:uid="{DA019CEE-73BC-4BB7-8F68-D3C10BB1150D}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_e@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="M14" xr:uid="{9DAFF4DC-A6A4-448A-992E-9FF04EE41FF5}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_e@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="M15" xr:uid="{BEBF27FD-EEBA-4779-8526-FBB6BD1187F6}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_e@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="M16" xr:uid="{14FDFFCC-4563-4E9F-9BEF-2E2610E6EBF9}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_e@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="M17" xr:uid="{B303346D-C447-40DF-B85E-DDDF7A3B6390}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_e@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="M18" xr:uid="{3FC065BC-4309-456F-A9F6-2954E9794C1E}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_e@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="M19" xr:uid="{FCCAC8AC-AB5B-4A3C-A5B9-EDF4D2D6D9D9}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_e@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="M20" xr:uid="{BC7D5D53-40C0-401E-99D3-6E42727041D8}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_e@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="M21" xr:uid="{5EF20BA0-D4D4-4485-B988-659D0B21F39E}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_e@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="M22" xr:uid="{12D621CF-3CDE-437F-8C27-AC4D5507BBAC}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_e@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="M23" xr:uid="{EBF52E21-0FC6-40AA-BB06-0FC24ACCB656}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_e@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="M24" xr:uid="{5F02DCC7-6563-4088-840F-C57E237771FF}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_e@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="M25" xr:uid="{E6EAD476-8CF2-41F0-9657-49ED8DF70634}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_e@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="M26" xr:uid="{FF566CE3-09E0-47BA-A85B-C76E0A7DE76E}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_e@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="M27" xr:uid="{901A8696-F630-4FE6-ABAD-AF1E2300D726}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_e@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="M28" xr:uid="{AE72C018-D1E3-4952-B2FC-1E30E55C34AB}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_e@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="M29" xr:uid="{4728F334-135A-47A4-9240-6502932F956C}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_e@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="M30" xr:uid="{C472B305-8119-457D-ADA7-7DC4F705B55D}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_e@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="M31" xr:uid="{738E3FD7-0FE2-404E-BB0C-E85328EEC917}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_e@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="M32" xr:uid="{4FC986A8-A3FB-4ABD-A5B9-F2D7F6BEBB68}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_e@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="M33" xr:uid="{CA28C6F4-71F2-4045-B8D3-5F561C33C7E8}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_e@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="M34" xr:uid="{71ADA2EB-BF64-4F9C-8C8C-231794B825AF}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_e@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="M35" xr:uid="{4A4A2964-B941-437C-AC8E-9A8E75761811}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_e@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="M36" xr:uid="{181C8EEA-9DE5-49E5-8FEA-A111AA25A536}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_e@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="M37" xr:uid="{3520F02C-8468-445B-BE8B-1CA97F676AC4}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_e@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="M38" xr:uid="{456E0661-AC6C-45DE-8EF4-3D756F966BE6}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_e@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="M39" xr:uid="{18BE70F6-0271-4EE6-ACBC-B3FD8D69367F}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_e@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="M40" xr:uid="{0FFA918E-E588-42C2-A3B1-02798E873384}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_e@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="M41" xr:uid="{562D7C50-00E8-435F-BAA1-311F1708F8C4}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_e@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="M42" xr:uid="{5701E830-CD44-4DD0-AA6F-CEA5F1E3082D}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_e@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="M43" xr:uid="{D49FF25B-AB93-419A-9279-8ABB95DD34CB}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_e@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="M44" xr:uid="{731B348B-7C36-4E28-9595-1234BE172DEC}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_e@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="M45" xr:uid="{8B9F7A48-3EB1-44AD-9A6B-59320FB1E3DC}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_e@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="M46" xr:uid="{0C053EC9-2DAE-42E6-A00E-4A1069821C3B}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_e@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="M47" xr:uid="{E902C51A-0B49-4305-A539-7A0CDF6DA61A}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_e@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="M48" xr:uid="{A4E0BD14-C9BB-4766-BDB0-35F6DBA4F8D3}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_e@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="M49" xr:uid="{8EB678B6-7BE3-4D81-9545-76243C11EF1F}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_e@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="M50" xr:uid="{E4BF122C-DDF9-471B-B5BE-FBD4B57AC807}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_e@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="M51" xr:uid="{CC5BBE00-4CD7-49BB-B269-E136142ED7F0}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_e@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="M52" xr:uid="{0955A7C9-5C7B-482B-B0C9-B86769E8CD1B}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_e@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="M53" xr:uid="{DE065FC3-A6FC-435A-984D-17B998C12247}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_e@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="M54" xr:uid="{4284FBE3-F4C6-45F9-8CFD-9B9CA1DF6D02}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_e@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="M55" xr:uid="{968190F3-6378-4A6A-AD45-94FB6507A976}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_e@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="M56" xr:uid="{055AD82E-3241-4E93-BDE0-497CEE0DB1A1}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_e@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="M57" xr:uid="{CDA51FC3-27FD-48EC-BC55-2C37E34B3A74}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_e@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="M58" xr:uid="{98A54F06-F664-4C3D-BF1A-9C8552A0C43D}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_e@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="M59" xr:uid="{7BF8B5CF-7E49-40FE-B63D-55C5111685F6}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_e@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="M60" xr:uid="{8F7B981E-CBB4-4753-9BC8-D0469D7F3F6F}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_e@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="M61" xr:uid="{72834E64-39CB-4199-89B0-A71CC8772EEE}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_e@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="M62" xr:uid="{622CA196-5999-48A8-817A-33585F9F7FDE}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_e@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="M63" xr:uid="{C54ED258-89A1-4E73-BBAD-D4D0D1C689B6}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_e@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="M64" xr:uid="{B7EFEA04-B15A-4D86-A8BD-C6985FA6F57D}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_e@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="M65" xr:uid="{62262494-6D19-4919-90E6-30E30E00D886}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_e@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="M66" xr:uid="{9ECFB262-0331-412D-9CAD-5DE40F5EDAEA}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_e@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="M67" xr:uid="{594BCEC9-11A9-41F5-840B-A239049DAF9C}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_e@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="M68" xr:uid="{419C2C63-0FDC-48CA-88CE-8F449C600545}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_e@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="M69" xr:uid="{7F990572-0D37-4D4D-BB51-22EA6FA68DD3}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_e@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="M70" xr:uid="{0EA38DF7-47BA-4E89-8CF4-B822CEB0548E}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_e@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="M71" xr:uid="{6F50536D-57AA-492B-BADC-B371458E81A6}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_e@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="M72" xr:uid="{6AB4A80D-0A18-403A-93C1-5E5A1CE838F5}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_e@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="M73" xr:uid="{EC9A6371-70E8-48CE-9392-5135E81D3A90}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_e@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="M74" xr:uid="{F5FDD85B-A220-46D9-AC5D-15A8576A608A}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_e@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="M75" xr:uid="{9206DB38-6783-4643-A465-85EF60B1F3F5}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d1@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="N5" xr:uid="{8FD398CC-521D-412A-8082-8BCD6690FCA3}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d1@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="N6" xr:uid="{9845AC79-AC9D-4C51-BF72-78F62861F01B}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d1@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="N7" xr:uid="{3A21C866-FB9F-4FEA-A100-8531131D3316}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d1@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="N8" xr:uid="{DD9B99F0-2DA4-4A0A-8E67-046CD6BE602D}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d1@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="N9" xr:uid="{DFCF826B-FA57-4A4D-A3FD-9CB3C44AF371}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d1@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="N10" xr:uid="{97434C14-EBF1-4DCA-9E99-6EFE695968F8}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d1@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="N11" xr:uid="{51A0ECBC-12E7-4D4B-845C-613C2CDBC004}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d1@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="N12" xr:uid="{796B0990-DA5A-45E7-96D4-94340A0B37D4}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d1@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="N13" xr:uid="{A53A2E0E-0294-48E3-9B99-BE2C5C90BE82}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d1@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="N14" xr:uid="{82CDA422-ABF6-4C8F-9899-D7BC239CECE2}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d1@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="N15" xr:uid="{CC084D46-3BE0-4806-985F-DCDA584BA201}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d1@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="N16" xr:uid="{BD021D0C-F806-4C7D-A151-759030BF11FF}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d1@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="N17" xr:uid="{972BC5B5-7B04-4F91-850C-916C3D375715}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d1@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="N18" xr:uid="{A8E5723F-B9FB-4765-969A-22D350D7A8DA}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d1@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="N19" xr:uid="{0A772F45-AE47-45FF-8857-5C291A264B4F}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d1@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="N20" xr:uid="{A7647245-9EF3-43E9-B5E2-EC153E8A6895}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d1@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="N21" xr:uid="{9AF1B03B-6D9C-4550-BA48-FF020BA2ABC9}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d1@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="N22" xr:uid="{8A4F1951-8F62-466B-AF6E-68A588B4847A}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d1@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="N23" xr:uid="{84733D6F-259D-4507-83FC-C211C28E11A3}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d1@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="N24" xr:uid="{FA81C670-1433-4788-9842-87CAAEF68F20}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d1@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="N25" xr:uid="{B32D0B0E-40ED-47E5-A184-6A05ABD619A7}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d1@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="N26" xr:uid="{3DAF127C-36B1-410E-9EE8-6F55DDDEE572}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d1@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="N27" xr:uid="{3B862C30-2303-44B9-8C95-90DE6BBE8BCF}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d1@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="N28" xr:uid="{B7355533-21C4-4359-A72F-E0D494DA28BD}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d1@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="N29" xr:uid="{BAA81B26-5DBC-4D50-8D38-2FCBE906BE7F}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d1@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="N30" xr:uid="{86493A29-7255-454C-90BB-78BF831F8D18}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d1@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="N31" xr:uid="{49A3B44B-D905-4762-B323-C6B27FDC6D4E}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d1@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="N32" xr:uid="{3C47D2FB-FE98-4F0F-BCE2-D462315A9312}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d1@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="N33" xr:uid="{EA6236F4-9C12-4938-A592-C536591C0F5F}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d1@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="N34" xr:uid="{3D841FBA-EDCA-4A2B-8F48-380EED0DBBF6}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d1@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="N35" xr:uid="{08905C98-A5CF-4695-8463-256D6C82C886}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d1@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="N36" xr:uid="{6F512024-8075-4C3E-97D8-CE95ED307B15}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d1@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="N37" xr:uid="{243AA132-1B29-43E6-81F6-3DC70630144A}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d1@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="N38" xr:uid="{5B7627AA-8539-4D19-9788-846D2FE7170C}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d1@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="N39" xr:uid="{FD2E72E5-6CDB-4646-9108-69D16677F398}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d1@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="N40" xr:uid="{69D26E81-F296-45CB-9958-A38764D300FC}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d1@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="N41" xr:uid="{7F982AF3-E6E8-4568-86AE-9132B41EB8F3}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d1@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="N42" xr:uid="{924AD8D2-4B63-4DAE-A3C1-C3580D058FB9}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d1@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="N43" xr:uid="{D80DE7E7-8620-4B5D-8759-0CEE7C91015A}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d1@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="N44" xr:uid="{A1E51EB8-AD92-46CA-B182-43A2742B3A2E}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d1@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="N45" xr:uid="{2180E0B6-8423-4818-8C57-9033ADF7166B}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d1@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="N46" xr:uid="{07020D6D-3ACE-4F30-995E-156B481FE273}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d1@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="N47" xr:uid="{4E11057C-8F11-4E02-AC7F-A8CF8714DCEA}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d1@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="N48" xr:uid="{ECF554C6-3247-481C-AE45-0F01C570F8CB}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d1@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="N49" xr:uid="{7D160169-56A0-4DBA-BAF4-4BC6CB7B6C60}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d1@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="N50" xr:uid="{671B5B51-6DC5-4F2D-9F43-7B1874F13844}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d1@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="N51" xr:uid="{DA36FEC0-0E84-4B3A-A729-0B1420567721}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d1@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="N52" xr:uid="{37011FBF-FAA1-4DE9-9860-5BB717E46072}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d1@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="N53" xr:uid="{CB891F14-7C62-4D42-9F85-8AD13A8B66D0}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d1@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="N54" xr:uid="{1E26F326-C145-428A-B4E7-9879BCC1BDCC}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d1@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="N55" xr:uid="{1EB049DC-6A01-4283-96BC-D52498E3D2B0}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d1@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="N56" xr:uid="{9C02D7BB-ADF5-4176-BD34-8D0E749089B5}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d1@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="N57" xr:uid="{6F2636EB-D63D-4F08-9BA7-FD050842F024}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d1@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="N58" xr:uid="{419F0932-D74F-460D-95CB-16ED067AAA9F}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d1@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="N59" xr:uid="{135BEA1D-B4EA-4BCD-BDEF-740DFA15E0E0}"/>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="O2" r:id="rId1" xr:uid="{E635130D-4DF6-46EB-81BE-D01C68FEBB63}"/>

--- a/ГОСТ/Подшипники/Стопор внутренний/Стопор внутренний до 165мм (ГОСТ 13943-86).xlsx
+++ b/ГОСТ/Подшипники/Стопор внутренний/Стопор внутренний до 165мм (ГОСТ 13943-86).xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D33B9EA1-3B90-4FAB-A775-CC07DEA1377B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4EE47138-F0FA-4921-852A-9FDC519AEDB4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="veryHidden" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A5059E7C-4793-41EC-90BC-71058505FA60}"/>
+    <workbookView visibility="veryHidden" xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{A5059E7C-4793-41EC-90BC-71058505FA60}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -13,16 +13,10 @@
   <definedNames>
     <definedName name="Family">Лист1!$A$2</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -446,16 +440,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8CC9191-12A5-4164-8AA7-9D7C0A5728CD}">
   <dimension ref="A1:O75"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="105" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.5703125" style="1" customWidth="1"/>
     <col min="3" max="3" width="7.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="7.5703125" style="1" customWidth="1"/>
@@ -4128,897 +4122,20 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="890">
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="C3 C4" xr:uid="{78D84083-5DBE-450A-8504-4F71D609DCCC}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_e@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="M3 M4" xr:uid="{2D852152-A6AE-4283-929C-3061F6CE5FE1}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d4@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="E3 E4" xr:uid="{EAEB1A5F-0D40-4733-BB00-A725EF1C3B33}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_a@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="H4 J4 H3 H3:H4 I4 I3 J14 J3 J5 J6 J7 J8 J9 J10 J11 J12 J13 K4 K3 L3 L4" xr:uid="{A1EE5753-439B-4F55-ABB0-2324048FB51C}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_l@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="I3:J4 J5:J14 I3 I4" xr:uid="{7CF0F89E-C80E-4578-A3C9-8666DBEB2458}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r1@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="K3:L4 K3 K4" xr:uid="{2B1EC042-24F1-41CE-AAB2-1FB91C7CFA25}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="J3:J14 J3 J4 J5 J6 J7 J8 J9 J10 J11 J12 J13 J14" xr:uid="{E8790516-FE1C-445A-9CD4-28DAE89A52BD}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d3@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="J5:J14 D4 D3 E3:E4 F4 F3 H3:L4 G3 G4" xr:uid="{09E50F95-9D7E-49F8-98EA-83DDD5E21868}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_D@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="B3 B4" xr:uid="{3FC99DF7-431C-432E-88A1-B9BF24CAF91D}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d1@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="O5:O15 O3:O4 N3 N4" xr:uid="{50442185-D530-451C-8A03-19D2FD04EFF2}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_DD@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="L3:L4 L3 L4" xr:uid="{014EC0FA-6466-477C-943E-1FC9B544980E}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_b@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="G3:L4 J5:J14 G3 G4" xr:uid="{CBAF7EC4-4C98-4545-84B9-08439C8BB442}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_s@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="F3:L4 J5:J14 F3 F4" xr:uid="{6C688956-C673-4F6D-AB06-AE104CE8885B}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_D@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="B5" xr:uid="{2DC21EC4-B4B7-46CD-8DA3-76A8D536B0E7}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_D@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="B6" xr:uid="{D43EA236-86EE-4DD5-9203-360A44059972}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_D@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="B7" xr:uid="{0D559184-0A59-4D0E-956E-708401EA099C}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_D@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="B8" xr:uid="{FDF86B18-2767-4E12-9EC2-C641F02D1153}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_D@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="B9" xr:uid="{8B867A3D-F7EA-42AE-BD37-6DCE33803E2A}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_D@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="B10" xr:uid="{98D725DE-58D7-49CF-935C-79EF9C878C1B}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_D@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="B11" xr:uid="{CA8C34A5-7425-4C08-91C1-CBD6FD0B97C4}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_D@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="B12" xr:uid="{CD2E093E-182E-4E44-97BE-7BAAB7F8FEF0}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_D@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="B13" xr:uid="{88919BA2-75FC-48B5-BCAD-6C83EB9119A7}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_D@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="B14" xr:uid="{B5931B70-1243-4CC3-B8D4-57CA728FB279}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_D@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="B15" xr:uid="{D80907C2-6F7A-4DF0-9980-6B8E18CA6402}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_D@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="B16" xr:uid="{76F1453C-8498-478F-B5F6-3468B137720D}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_D@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="B17" xr:uid="{8BF3120D-6F8D-4B0C-B40A-F04442A28835}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_D@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="B18" xr:uid="{BA2B539E-8E37-47D0-BBF2-8FE2E6733595}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_D@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="B19" xr:uid="{A119C34D-E984-4ADC-B609-26848D913B1F}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_D@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="B20" xr:uid="{1518529B-C88B-4BAE-8A55-A21B761ED75B}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_D@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="B21" xr:uid="{81A629CD-1D89-4608-9EB9-141A60FFE211}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_D@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="B22" xr:uid="{F1A2B6BE-32AA-4843-9EAF-2A7FAEC9D063}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_D@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="B23" xr:uid="{A15EE590-2CFB-42C2-8137-74C167A329DB}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_D@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="B24" xr:uid="{48B87F19-DF2A-4175-AF5B-9DC43DF05A75}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_D@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="B25" xr:uid="{9975E50B-A7AF-487B-B1EB-C100E958595D}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_D@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="B26" xr:uid="{3F6AA737-D522-4C90-B842-2090A6DE9E80}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_D@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="B27" xr:uid="{25A0F167-0E1F-4213-A921-AAABF6B0A6DB}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_D@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="B28" xr:uid="{3B36FAE6-9591-462C-AFF8-DC7973C292C7}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_D@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="B29" xr:uid="{749C9815-6D6D-4DCF-ABA6-F09B369BDDD7}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_D@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="B30" xr:uid="{B9E13BEC-6553-40BC-BA3A-F436DA1A1FD2}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_D@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="B31" xr:uid="{FA6685A0-83F0-4E8E-93A5-C6B2CFA571C3}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_D@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="B32" xr:uid="{7CDD1070-55C3-469A-8CC6-CAA4F17C1ADE}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_D@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="B33" xr:uid="{3693B06E-FF31-4BE8-9ED0-0E2A86106817}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_D@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="B34" xr:uid="{72744967-204F-40E2-822D-3329ADEBE353}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_D@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="B35" xr:uid="{DBE15446-A4AF-4ACF-B965-8D0EE363C5A5}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_D@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="B36" xr:uid="{F20F676F-EF59-4601-B251-56E80712A0EB}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_D@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="B37" xr:uid="{CECEC532-96C0-41D6-8849-537F9B3182D4}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_D@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="B38" xr:uid="{08EC963F-2FD2-4746-B918-3799C2CE0A9E}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_D@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="B39" xr:uid="{F57BFC06-4D04-4FB7-98EB-96A47903B2B8}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_D@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="B40" xr:uid="{322C7F3B-4C55-48CF-A077-A9483B6C07EC}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_D@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="B41" xr:uid="{2EC7D436-6CB8-45F4-9F88-FD8277122DEA}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_D@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="B42" xr:uid="{A1BC7B6A-C73E-4A9D-8386-EBFA278B6752}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_D@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="B43" xr:uid="{60D40941-7D9C-4B1A-B336-DDDD56E0E2FA}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_D@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="B44" xr:uid="{15A3ED51-D3F6-4BDF-BD61-4205A3959C0C}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_D@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="B45" xr:uid="{88915B3E-EBB2-4620-B00E-E51711482823}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_D@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="B46" xr:uid="{6A694A38-3096-4C2D-A5A1-0C1738A4BFA2}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_D@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="B47" xr:uid="{D7489DC2-06BA-4F47-8D11-356F2EEEBCED}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_D@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="B48" xr:uid="{40E2DC5C-1961-40BF-9598-C6EA6294454F}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_D@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="B49" xr:uid="{5AC6F411-8072-4AA2-8C5B-1AF59301ABEA}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_D@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="B50" xr:uid="{9A148959-3B6A-41F2-A66E-13370A0822DA}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_D@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="B51" xr:uid="{E58FE193-9F78-484D-B55B-BC5F05E32852}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_D@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="B52" xr:uid="{69F1B40E-B8C3-409F-B7E0-DE18040FDF4C}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_D@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="B53" xr:uid="{D86B4222-156D-4E32-BC86-E28574FCCEBF}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_D@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="B54" xr:uid="{165DEC1A-FA23-42A1-9F4C-42386E851142}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_D@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="B55" xr:uid="{3D548409-178F-4F71-8060-B1D7B374D704}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_D@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="B56" xr:uid="{31064144-3C9E-4B31-99C7-0987666F4EEB}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_D@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="B57" xr:uid="{090A3E93-FC25-4901-A95D-12C3B4A867EB}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_D@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="B58" xr:uid="{EDF2ACB5-54B3-4469-A841-804EE7D6F70E}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_D@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="B59" xr:uid="{2F61533D-F5C0-4ECF-AF7B-5B236AACBD5B}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_D@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="B60" xr:uid="{70D13ED5-7E0C-4450-B0CF-3112A86A2303}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_D@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="B61" xr:uid="{F160138B-BFA5-49E5-B8DD-256D6C2308D2}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_D@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="B62" xr:uid="{EBE8E344-66C5-4710-8C4C-2A44218AC7B9}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_D@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="B63" xr:uid="{B0DC8A76-0528-4ABC-85C4-FD15A6BA1436}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_D@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="B64" xr:uid="{2925F021-33BF-448B-92BB-30A56D3552E6}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_D@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="B65" xr:uid="{D1A4D653-5914-4D7D-8BC9-A3E105EA54A7}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_D@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="B66" xr:uid="{16D0AEA1-3CA5-461E-BACB-28E2050503DA}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_D@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="B67" xr:uid="{2FE7DF5A-E313-4FAC-88BF-88A188C66653}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_D@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="B68" xr:uid="{8B1894B9-6922-4EF6-9521-C34E725413EF}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_D@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="B69" xr:uid="{7E272855-C593-4CBC-B2DA-AEBB8CF7A0FF}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_D@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="B70" xr:uid="{CCD5B4BD-6DF9-47D3-BBC7-B53CC43A2E0C}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_D@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="B71" xr:uid="{D65E738D-7FC7-47C6-9B20-2DE438B2D90C}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_D@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="B72" xr:uid="{B78EABD7-5C0C-4687-ACBC-11E48246CF53}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_D@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="B73" xr:uid="{3DF419D7-5ED6-4BBE-8460-CE25D1D32280}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_D@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="B74" xr:uid="{4DAED0F0-7D14-4FA8-B7B8-0DFC35748BF9}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_D@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="B75" xr:uid="{664E8908-FBA5-4F07-8227-46F6F372465B}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="C5" xr:uid="{9FB6D111-44B9-424C-B893-2457D889F3C8}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="C6" xr:uid="{CB172BED-A374-4F6E-B91A-632F5BF82AB7}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="C7" xr:uid="{E8CB80FD-ADA6-434E-B517-3C5151C68AC1}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="C8" xr:uid="{0AE14B50-084E-4F79-8247-F2DCEA34BA49}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="C9" xr:uid="{C791BAAC-13BD-4BCD-B0B1-0D44B159E659}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="C10" xr:uid="{912FC924-BFC0-4654-8DD0-2CB2E3860CCF}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="C11" xr:uid="{1FCFA9F5-201E-42D3-8735-F053622AA383}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="C12" xr:uid="{26A98CCD-5303-46C5-9008-07ADB968A843}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="C13" xr:uid="{B37156CA-EF7D-433C-889F-EA0C9C1C9478}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="C14" xr:uid="{32AFCFCB-9263-43F2-8DF2-EDB0A7357F06}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="C15" xr:uid="{02BC3567-9BF7-43B3-9B82-50A9DB48DFC2}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="C16" xr:uid="{2AAB1A38-B1B9-4792-8C15-98762F4F9BC0}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="C17" xr:uid="{89A1A64A-42FB-458D-A71F-3BEA8A29A387}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="C18" xr:uid="{D659597A-5B61-464A-BCF3-8F2E7FB97D41}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="C19" xr:uid="{4FB99E99-7C05-411D-9F82-89CFD9809AD6}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="C20" xr:uid="{B74267F9-459F-4447-9D24-F281C6F995F8}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="C21" xr:uid="{D972AB33-C2CA-4060-9FD9-102C5C30AE8C}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="C22" xr:uid="{5D32D820-5E5E-4738-95A6-864966281E6E}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="C23" xr:uid="{20DF1A9E-9F7E-4A36-BFCC-46B77EDF039B}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="C24" xr:uid="{8C94C2AD-9A56-4C01-8D6F-BDC46A556AA7}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="C25" xr:uid="{C0A599ED-32B9-4C8E-9585-0A175AA8ACF4}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="C26" xr:uid="{35C47CB0-94CD-4012-862C-4D7CC219D79E}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="C27" xr:uid="{0DCF1537-A85A-4668-8BCD-A89D2748B0AD}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="C28" xr:uid="{D21EE07A-092E-4FAA-ACF6-A2BAFC55EF1E}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="C29" xr:uid="{AACD7474-4C94-4293-A5C6-7A854BA48FD3}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="C30" xr:uid="{5500C0A1-BF63-48F0-877B-865231C24BF3}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="C31" xr:uid="{383EBA9D-E957-4037-B73F-D226830B7DE7}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="C32" xr:uid="{B82DB2DD-C067-4198-A549-6A94F87ECB00}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="C33" xr:uid="{75A568BF-6DB6-49BE-BA8F-872A63ACF256}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="C34" xr:uid="{BEB45BCC-8047-4AE9-BABE-4D703A19F2E7}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="C35" xr:uid="{AD14CC82-8DEE-45BB-A399-7D53AC332C0E}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="C36" xr:uid="{76C8C185-25CE-4D07-BD29-84C5B9645012}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="C37" xr:uid="{0953B19C-CCB9-495A-8985-4188FAACB239}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="C38" xr:uid="{4D478A59-FE72-4D5B-9061-3743870CF225}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="C39" xr:uid="{97735C54-68CD-426E-A52A-6974B6762157}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="C40" xr:uid="{9DBC729C-E694-45E2-A9E4-DC9DC208B79A}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="C41" xr:uid="{6A6B800D-825E-4DBC-909F-441EB7805DC2}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="C42" xr:uid="{9845B451-6946-4DAE-8CF6-71BAEAC4C149}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="C43" xr:uid="{70C1CC7F-F7CA-4BCE-9B73-46708064EF84}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="C44" xr:uid="{48EA2FAF-0DF6-42EE-A337-16C2108D61D5}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="C45" xr:uid="{8F8E3A69-234B-43A0-8E06-41887C88D233}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="C46" xr:uid="{6A18672F-D2D7-4D9F-B651-E345C06B105B}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="C47" xr:uid="{B3034500-FF02-44C9-A0E1-7ACAD596A79F}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="C48" xr:uid="{75EBA242-6C3D-45D4-A3B6-CE120BD87DDD}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="C49" xr:uid="{5ADA4AD4-55E0-49AD-84DE-4E881DE6037C}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="C59" xr:uid="{4C4B0213-0DDA-4D5F-A44A-972B15B79FBA}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="C60" xr:uid="{1F37EBF6-C42B-420A-AB46-101C7E66AD00}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="C61" xr:uid="{74B2C1BC-FEB3-46B8-96F3-D14E305EA9C4}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="C62" xr:uid="{5F79CDA4-4CA5-437C-AA87-2A75C79B3FD9}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="C63" xr:uid="{256FD074-D615-4F6C-8E29-B582ABBEEAEC}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="C64" xr:uid="{CB786B1D-B7BC-4402-9498-25F02F8E9B13}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d3@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="D5" xr:uid="{2A1A682C-2BE4-4324-897A-47EA44425E82}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d3@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="D6" xr:uid="{8FFEC6FD-0577-459B-A8F3-83FA1CEC6EA9}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d3@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="D7" xr:uid="{6CB694B5-8B69-4CD1-A323-1D08741B78EE}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d3@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="D8" xr:uid="{B6EC211D-3FB8-4C0D-83DE-9EAA034B03F5}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d3@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="D9" xr:uid="{FB63D490-7CB8-404D-B636-54F5C6A10D8C}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d3@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="D10" xr:uid="{F5456BF1-FAF1-464F-B848-5CC7C45CB514}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d3@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="D11" xr:uid="{1E85D11E-067C-4B93-A285-8BFAADD03C40}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d3@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="D12" xr:uid="{AFB43126-07BF-4B26-A5E1-C04E0773256F}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d3@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="D13" xr:uid="{AA35962B-6F6F-462C-A988-AA29D10043CF}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d3@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="D14" xr:uid="{C4470B6F-600F-4446-B690-D5215E169307}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d3@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="D15" xr:uid="{A6660FF4-E259-4BC4-BDAC-6D80A074ACAD}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d3@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="D16" xr:uid="{35922530-D366-49B0-89DA-CFAF311CC0B0}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d3@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="D17" xr:uid="{B34EE984-52CB-4F3E-99EF-F1F38D6B5E44}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d3@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="D18" xr:uid="{BC144546-04F4-4F78-AB0E-4EDCDC66A380}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d3@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="D19" xr:uid="{4CE11ABF-16A8-4485-8F05-945F13F10DE0}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d3@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="D20" xr:uid="{3ECCC178-DDAD-46DF-BBB2-F1D753BF5506}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d3@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="D21" xr:uid="{51B66CBD-3035-4B1B-A494-79A47360F1D4}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d3@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="D22" xr:uid="{1C3DD735-4443-4D3D-B135-670CA69998EB}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d3@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="D23" xr:uid="{CB2F5EB1-792F-40EE-808E-D8E26DC7BAFD}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d3@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="D24" xr:uid="{9121E0B7-101C-4487-90EF-68863E24C8C4}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d3@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="D25" xr:uid="{4005CEA4-729F-412B-9FBD-317EE39AF6D4}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d3@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="D26" xr:uid="{F0C5A3C9-1E84-4732-B340-45D3BD5F7E7A}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d3@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="D27" xr:uid="{2687A605-BFFF-424F-8B8F-F5E16A9693F5}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d3@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="D28" xr:uid="{4AD5E784-F064-4125-AA5D-F3F0944B2F11}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d3@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="D29" xr:uid="{76810AC4-795E-403E-BE5A-2A15122B2434}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d3@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="D30" xr:uid="{532204F7-36AD-481F-846F-ACBD54036950}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d3@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="D31" xr:uid="{B529A7F7-0375-4327-AFA3-E8512488C882}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d3@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="D32" xr:uid="{C4B97A38-42E9-46DF-86D9-8614108E7576}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d3@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="D33" xr:uid="{87073E61-0B98-458F-8BA7-068CE8BAE97C}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d3@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="D34" xr:uid="{B465039B-DF34-4515-983E-D3319AAA0B7D}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d3@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="D35" xr:uid="{20B2700D-40E1-4FE1-BB8E-0D969EEBE736}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d3@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="D36" xr:uid="{FC254944-0E23-48D6-B221-9F89E26170E8}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d3@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="D37" xr:uid="{7079EBB3-4240-433B-A50D-0F148FF482C5}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d3@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="D38" xr:uid="{83800585-571A-41E2-9198-AC57D1711F19}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d3@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="D39" xr:uid="{5A8B792C-F306-451D-ACA5-7652912CADAE}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d3@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="D40" xr:uid="{75AD0DEA-5BC1-4FA1-8401-8A6B06805B42}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d3@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="D41" xr:uid="{4F71FF4E-D42A-4D2E-B955-1FE62917ED43}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d3@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="D42" xr:uid="{67540130-3C0A-4BF9-A7A8-EE218F92E44A}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d3@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="D43" xr:uid="{FD63C470-3EBB-4A61-B4B5-A1FAB6C63118}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d3@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="D44" xr:uid="{DA6B16CB-3952-437E-873E-E892F2DE1E0D}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d3@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="D45" xr:uid="{0A3CADEB-73EA-4ADD-827E-19C7F0672B3B}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d3@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="D46" xr:uid="{FA87411A-AD57-4C3D-BE5B-4A45DACC2240}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d3@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="D47" xr:uid="{D504D715-A917-40DF-927E-5A886FD8208C}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d3@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="D48" xr:uid="{779821E6-B50C-47D9-B6B1-D8E79574B9B5}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d3@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="D49" xr:uid="{6DC8ED7D-F07D-4C89-BD68-98A614D2614C}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d3@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="D50" xr:uid="{A96A0F7A-5B98-4801-9189-912934FF6BF5}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d3@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="D51" xr:uid="{F60AB19F-D142-415F-A332-D8678CFAA214}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d3@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="D52" xr:uid="{835BCFE2-D30C-41FC-9CCC-908A23C922FC}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d3@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="D53" xr:uid="{36307B4F-069D-4A86-A717-7A2DE6E466EA}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d3@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="D54" xr:uid="{20A3FD3C-A970-4174-998F-36B4058CD99D}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d3@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="D55" xr:uid="{13E6F485-92B5-4879-9A5A-DCB67493A609}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d3@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="D56" xr:uid="{C2C5A468-E6AA-4B86-8D50-A1F9AFED9AC9}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d3@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="D57" xr:uid="{22DD251C-0797-4145-A26B-6AA5683D149A}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d3@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="D58" xr:uid="{9E2115CA-7620-441D-BDE9-CF413716C44C}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d3@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="D59" xr:uid="{04633C39-0617-47FF-8600-7B97E5BD145A}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d3@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="D60" xr:uid="{8B428E28-2BD5-4F1A-B148-7FA1D3A9E9CD}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d3@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="D61" xr:uid="{A86CDF8A-A5A1-4B40-9F0F-74A3F87BC838}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d3@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="D62" xr:uid="{20466C69-30F6-4E99-A92F-52E46A6EDDFA}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d3@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="D63" xr:uid="{6CD0E20F-53CA-43DE-A553-8917DB31793B}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d3@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="D64" xr:uid="{66DB37BB-8F0B-4529-AEDA-DDD16D6830C9}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d3@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="D65" xr:uid="{55418EB7-3EB6-4C07-BB01-92743B44629C}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d3@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="D66" xr:uid="{16990980-1B1B-4DA0-B6BF-C61792C6481E}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d3@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="D67" xr:uid="{E607CFBF-BF35-4ECD-96B4-A20D621A7F88}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d3@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="D68" xr:uid="{FEAE2D0B-1A2A-4805-8A16-591D99B97558}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d3@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="D69" xr:uid="{FA2077EF-71E6-4E13-B9B1-4173D92FA926}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d3@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="D70" xr:uid="{EA59CDF3-0884-46FC-8735-DDDC3D9FA38D}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d3@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="D71" xr:uid="{94F2AFEE-BB72-4F30-B0A6-A69A322A9DCD}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d3@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="D72" xr:uid="{5D800FB0-F133-491E-96AB-8DAD7A0ADAEA}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d3@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="D73" xr:uid="{11E7ADB2-83F1-4F6D-8EBB-6DC7C8FF6228}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d3@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="D74" xr:uid="{995464C3-307B-4C24-B49A-2A3D5934EF58}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d3@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="D75" xr:uid="{3D6BCB2B-C98A-4308-9742-84C12A873933}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d4@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="E5" xr:uid="{72664FCB-5853-405A-BF02-52A61E07D167}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d4@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="E6" xr:uid="{5D378416-535B-43A0-8B47-73699E6EED57}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d4@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="E7" xr:uid="{2584EB73-5AE3-40AF-A579-38DE5EE6C568}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d4@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="E8" xr:uid="{5C933F79-17DD-46C4-98B2-A429C63F8CBC}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d4@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="E9" xr:uid="{A29881F3-13BE-4D64-B43B-D5002409A8B5}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d4@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="E10" xr:uid="{7749FAF1-F54D-4F5D-ACA0-8767C4234B59}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d4@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="E11" xr:uid="{0DB867AA-3086-4929-8DE5-E7CA9B067B64}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d4@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="E12" xr:uid="{8918ED80-16A8-4856-B23B-9F4D1F355BFA}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d4@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="E13" xr:uid="{04145D2A-F5F1-4EE5-821F-B250437E6166}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d4@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="E14" xr:uid="{BD4EC182-45BA-413C-8A7F-BDA653A3504E}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d4@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="E15" xr:uid="{8652D1A4-A0E9-4AA0-9BDB-03CF693DE3DB}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d4@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="E16" xr:uid="{C547DCA2-91B1-4131-966D-9F58A4240881}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d4@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="E17" xr:uid="{A6A4A240-BA2C-4E0B-8A96-5F16F3D4A029}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d4@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="E18" xr:uid="{D53BA3C3-994F-43BD-AB2B-68D2D5194958}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d4@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="E19" xr:uid="{0ACFFFDE-95CD-4AF6-8FEE-F661D94DE055}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d4@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="E20" xr:uid="{C10897E0-5624-48A5-8517-A78E47D7FB5B}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d4@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="E21" xr:uid="{216A5E95-D480-4D3E-A94F-19A01EF27EAC}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d4@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="E22" xr:uid="{041A6A57-F59E-417A-A11B-24BE6F9B2253}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d4@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="E23" xr:uid="{1A3FBA8D-D881-4A59-B007-4FD6892968BB}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d4@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="E24" xr:uid="{3B5CBC66-0A35-45FD-A02F-6A835E988A9A}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d4@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="E25" xr:uid="{4431EB0B-C709-4532-9FB6-0DCCF7B202CF}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d4@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="E26" xr:uid="{7B631237-F9D1-4E9D-9C72-CB43EC7E3B68}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d4@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="E27" xr:uid="{5D996B96-68CC-4636-8856-80B5389313A0}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d4@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="E28" xr:uid="{DEFBC79C-C80B-4B4A-AB3F-AFE006DB1EBC}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d4@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="E29" xr:uid="{A62BFBB3-6BDA-47D0-AD2B-814E1861A559}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d4@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="E30" xr:uid="{F5635A9C-4B19-4225-BF49-47FBA7EFA8F6}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d4@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="E31" xr:uid="{AC488995-CED4-4915-A014-FEA6072D2608}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d4@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="E32" xr:uid="{44E2A315-D735-4783-90C8-60C1E3E1EFC8}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d4@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="E33" xr:uid="{4D71C023-B218-4E41-B67B-E9DCD62D12F2}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d4@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="E34" xr:uid="{EEAE7194-DCC9-43CE-828B-03348AA54B9B}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d4@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="E35" xr:uid="{8FFE4359-96F2-4965-83DE-564E8AFAFCCF}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d4@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="E36" xr:uid="{6B73F47D-F927-4C47-8A88-386C67025201}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d4@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="E37" xr:uid="{03DB5EE6-A283-48BD-A1BD-2EF76621BF3D}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d4@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="E38" xr:uid="{23103044-61B9-42D0-9EB2-1666A9FF9F61}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d4@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="E39" xr:uid="{46308336-912C-4304-A17E-FF274427D983}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d4@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="E40" xr:uid="{E1CC5CED-128C-4637-A70D-F0AD28BBA08F}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d4@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="E41" xr:uid="{E60307CF-8161-42A0-8DEB-A15213332754}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d4@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="E42" xr:uid="{53D48665-FA07-4928-87FF-F451B52831B7}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d4@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="E43" xr:uid="{F21DF0BB-1D1B-4977-945B-C1C7B7AA54C8}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d4@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="E44" xr:uid="{B940223F-D6D8-45F2-A260-5FB05215BCC8}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d4@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="E45" xr:uid="{6E228112-5B36-452E-9BE9-1E22AF94D7EA}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d4@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="E46" xr:uid="{1A4585E8-8BF8-47B7-A007-375663ED337F}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d4@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="E47" xr:uid="{287A79C5-2156-45C4-93C0-F539717036F5}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d4@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="E48" xr:uid="{6013FCEA-88CE-48B9-A7D2-DF03986D8783}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d4@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="E49" xr:uid="{98077F07-CF34-4AC0-986C-34244FDC0B4D}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d4@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="E50" xr:uid="{AF45CB34-4467-4EE2-92F3-ADAA4406E879}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d4@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="E51" xr:uid="{02343F8E-0A52-479C-9922-790D35F23D94}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d4@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="E52" xr:uid="{7EA0D82E-B1DF-44AA-9F59-DAFFCF3885C0}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d4@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="E53" xr:uid="{A0072E13-0D9F-4E1B-B13D-D6DD047C1CDC}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d4@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="E54" xr:uid="{453A10F5-521B-46A0-B111-B3C58C6A3E96}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d4@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="E55" xr:uid="{EDAB9E04-C09E-46D1-8CA9-615B572FEA33}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d4@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="E56" xr:uid="{078B61B1-0982-4C07-89BF-61AD6C0981B1}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d4@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="E57" xr:uid="{148F1C63-B754-4290-97B2-D2DA3BC6048D}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d4@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="E58" xr:uid="{E42FAB2F-3B48-4050-874F-9B1D82DB8D65}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d4@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="E59" xr:uid="{9897A6BB-6806-4A9A-9A83-484B0B354AA7}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d4@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="E60" xr:uid="{810D04EB-F27C-4EAA-9EAC-B93949B40022}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d4@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="E61" xr:uid="{C42B080F-6690-4F11-B897-A3CD5AFCF8F3}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d4@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="E62" xr:uid="{197D681C-E213-4B43-A43A-7B3E204FE84E}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d4@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="E63" xr:uid="{699600EF-31D2-4187-A023-C6ADB495BCEE}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d4@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="E64" xr:uid="{C0F47F6A-3F64-4355-B49A-3BA416DD608E}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d4@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="E65" xr:uid="{80A4B267-1508-4F08-8FB2-21B6F783D689}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d4@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="E66" xr:uid="{1258D0F6-6B96-4583-BA84-5DA28A81FB77}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d4@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="E67" xr:uid="{97234966-C8D7-4D11-9697-415695E7D1CB}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d4@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="E68" xr:uid="{4FEDF8E4-9F68-4FFF-AACE-39F1EE8FE616}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d4@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="E69" xr:uid="{94A128F3-D834-41C9-B5DC-308AD406E5A7}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d4@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="E70" xr:uid="{7905CDB7-E9F9-4997-A8FF-7AE2F371BA0D}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d4@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="E71" xr:uid="{52866181-B576-4B96-A431-F63B74590EA2}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d4@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="E72" xr:uid="{76B60552-31E1-4232-93C5-42DB54F436C0}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d4@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="E73" xr:uid="{37A6639A-8BD0-4F9B-BFE4-743D26B5B163}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d4@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="E74" xr:uid="{3808FAF8-4792-46F0-86B9-D3B9E4455C0C}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d4@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="E75" xr:uid="{D582F23B-E467-4840-8198-FA610BA0C64F}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_s@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="F5" xr:uid="{0F1B4F4A-2635-4899-AEBC-82E6ED157CFC}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_s@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="F6" xr:uid="{A19042C5-7AE1-4A66-91D0-5FEF3BEA546F}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_s@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="F7" xr:uid="{79987E4B-31CD-415B-928E-9B3E48A88786}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_s@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="F8" xr:uid="{53C334B4-0F85-4B46-9434-4FA56C4AD7EF}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_s@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="F9" xr:uid="{A5BC4350-4554-46A4-8894-CF9F3A771AC2}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_s@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="F10" xr:uid="{736B04D5-3EFB-4D48-855F-974CD90A683B}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_s@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="F11" xr:uid="{CAE67F09-2EB1-41F8-B20A-67F56C564232}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_s@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="F12" xr:uid="{43362CFD-4304-43A9-A4F6-01F063E98455}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_s@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="F13" xr:uid="{BA89F59E-08D0-452E-A2C4-227E3E4CB0AA}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_s@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="F14" xr:uid="{B464382A-FC8C-4847-B74E-C2DF9F8CE9AD}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_s@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="F15" xr:uid="{22EB639A-2BE0-4DAE-AA30-6E0700A59E62}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_s@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="F16" xr:uid="{E72D7E82-B477-49F7-AD8F-3212F58B80CD}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_s@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="F17" xr:uid="{44AF0395-C105-4732-A756-699DAA493D2A}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_s@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="F18" xr:uid="{12F842E5-1FEE-446B-90D9-306565EFB070}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_s@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="F19" xr:uid="{9137AC27-059B-4C6F-9B37-27EA721B1887}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_s@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="F20" xr:uid="{E22363AD-3A09-421F-AD80-6D6D887F6FF3}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_s@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="F21" xr:uid="{12EC97EA-C673-4B41-80AB-6279E743AFD0}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_s@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="F22" xr:uid="{E5447879-6F65-48B3-9C4C-7B0D99BB877D}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_s@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="F23" xr:uid="{638A2FB6-11EA-481C-A0CC-233873E04251}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_s@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="F24" xr:uid="{F0E14B4C-2FEF-4431-9CAF-E0ACA9780D9E}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_s@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="F25" xr:uid="{522F0F05-AAA8-42D0-A129-377CD3EF02E9}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_s@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="F26" xr:uid="{A21566FE-B184-4669-95BD-37E5B065AED8}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_s@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="F27" xr:uid="{A26F8530-9EC7-459C-8075-FE7F49B21BEC}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_s@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="F28" xr:uid="{E8F28D95-8966-4A71-AC2C-23DE5DAFFB5A}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_s@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="F29" xr:uid="{41B76401-DE02-49CE-9D15-064FF78935BF}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_s@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="F30" xr:uid="{E67DDA3D-FAED-4C69-AE72-6C8C9B388D05}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_s@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="F31" xr:uid="{440E81D4-C703-4F8F-876A-5048D217E30B}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_s@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="F32" xr:uid="{659814EF-4E1F-4C72-A2E1-4DB18C58ACF9}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_s@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="F33" xr:uid="{A3C7FD77-5ED5-49A2-86F6-6167592F35CE}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_s@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="F34" xr:uid="{EE1ECCD8-0EB2-4B18-981A-E92E8211116B}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_s@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="F35" xr:uid="{EDA4F83A-E94A-46E8-AF9F-C2D6FEBD72A3}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_s@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="F36" xr:uid="{554F69AC-00CB-4AE7-B5F8-3CCB3797A395}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_s@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="F37" xr:uid="{AF734FB7-7E54-4D53-A5C8-FDFBDDC2D06F}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_s@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="F38" xr:uid="{67895A8C-CD6F-4C11-8A83-CAE9FE94C4C2}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_s@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="F39" xr:uid="{770D9216-CEC7-4993-9F6B-D1DD9B0F5EB6}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_s@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="F40" xr:uid="{2787B0F5-A524-47A4-8103-3334F8807A41}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_s@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="F41" xr:uid="{5412458C-BE01-4BC3-8DCB-468D8B366104}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_s@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="F42" xr:uid="{25A78762-4638-4FE9-A08A-B1BDED3BB3A7}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_s@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="F43" xr:uid="{7AD6D34A-4909-4D4F-9B44-1A3BD0F94B7B}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_s@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="F44" xr:uid="{8066E791-7483-45DD-9279-2DD04AEB4284}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_s@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="F45" xr:uid="{C033E966-2AE4-4302-81FB-5510B92C11E3}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_s@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="F46" xr:uid="{10118082-2E1D-4BB5-BB50-B04CCC7E6811}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_s@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="F47" xr:uid="{242BAF21-B598-43C9-BBA2-70997225CC64}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_s@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="F48" xr:uid="{E4DF7DE0-7007-4D1A-A1BF-254AA864B24F}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_s@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="F49" xr:uid="{B0F9D041-CEE9-4B54-85CA-7844EC7F4B28}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_s@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="F50" xr:uid="{95DAF763-4FA6-45A3-A0B7-01DEC39B746B}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_s@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="F51" xr:uid="{4B343520-38E2-4339-B0BC-67E6A6C5BABE}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_s@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="F52" xr:uid="{9605C76D-EDA1-4523-A993-E21A9E805DBF}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_s@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="F53" xr:uid="{FE387007-1228-494C-9139-D66546769C44}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_s@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="F54" xr:uid="{F206C16A-C08B-40AB-AEC4-2E48D159C099}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_s@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="F55" xr:uid="{336AC4EC-DBCC-4E75-95EC-A05FE147321C}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_s@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="F56" xr:uid="{52F94FC2-96FB-46A6-AC26-047423E125FB}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_s@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="F57" xr:uid="{DB80552C-958D-46AA-B270-D994FBE196BF}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_s@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="F58" xr:uid="{8913F010-5055-4EA1-B018-9788579D2E85}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_s@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="F59" xr:uid="{FB6035E5-A63E-4F35-ADF5-83C1FA2B7AE6}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_s@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="F60" xr:uid="{3E18436C-C7FF-4650-B0A5-D441E453DF17}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_s@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="F61" xr:uid="{1300622E-157B-4FC1-B0B3-76754E0DC906}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_s@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="F62" xr:uid="{7AE6D386-3DB7-4851-A5D5-4A287ADBDEEE}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_s@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="F63" xr:uid="{67A42E52-0332-4EB5-8A62-8647D298C3AA}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_s@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="F64" xr:uid="{D12210E5-EA29-41A0-963A-F9F08DAA5767}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_s@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="F65" xr:uid="{E8EC4883-0B6C-4590-B8CD-746408AC1606}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_s@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="F66" xr:uid="{653C80EA-446F-417D-BEF7-85020936A1F3}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_s@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="F67" xr:uid="{70573D2E-310F-4457-8773-4C11A32FA361}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_s@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="F68" xr:uid="{FEBC303E-8CFC-4DC2-89C1-DBD40339EA74}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_s@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="F69" xr:uid="{D9B623A5-B9BC-46E2-97D3-F9C4DDAA37D4}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_s@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="F70" xr:uid="{6AFC67EA-C228-4338-A58B-2CE35E716CA8}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_s@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="F71" xr:uid="{7B430CA4-F6A8-48BC-964D-D7488669D4F6}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_s@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="F72" xr:uid="{7CFB626C-69B8-453D-A11D-C50E7B4BBA3E}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_s@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="F73" xr:uid="{548BC3E7-28AD-48A9-8AAF-FB845FF5E6A5}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_s@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="F74" xr:uid="{90301BAA-7A0D-485A-B503-C804B6FACBDE}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_s@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="F75" xr:uid="{7B34E469-961A-4BB0-9AA6-5E81DB02F437}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_b@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="G5" xr:uid="{48231352-3F24-4C6F-8DAA-DD29C8E8E4B1}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_b@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="G6" xr:uid="{D6181FB5-C725-4592-8BA3-01A65A794594}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_b@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="G7" xr:uid="{4EFF35F2-58F0-4772-A39D-957509211C24}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_b@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="G8" xr:uid="{70B727AA-89FE-45D8-BF72-1D9F1A25DBFB}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_b@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="G9" xr:uid="{0080A7C8-EDB8-4A40-9BBE-69BDC20597A7}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_b@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="G10" xr:uid="{588B7F89-3DEA-4284-8BC2-323EA0E7E279}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_b@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="G11" xr:uid="{F909FD88-743F-4390-AE29-D936ED7F8454}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_b@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="G12" xr:uid="{3B4A3E63-483E-471C-8C52-006B5517C998}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_b@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="G13" xr:uid="{994184E3-59E6-4533-86C6-A5380AAB0B58}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_b@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="G14" xr:uid="{0EE46764-C6DC-4276-8402-21D02C9C77A3}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_b@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="G15" xr:uid="{0A1DC90B-AC45-4E4E-940A-648C6AD3F5AB}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_b@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="G16" xr:uid="{D51DA2E4-9981-4EF0-97F0-E50CCEE11AF1}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_b@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="G17" xr:uid="{3C4E8843-D261-448A-9C20-405866E35C5F}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_b@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="G18" xr:uid="{4354C4B2-BD6C-42D6-8BED-965CB4324E6A}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_b@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="G19" xr:uid="{C7467C7B-9F36-44F2-AAFE-3F4E00F236E0}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_b@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="G20" xr:uid="{F839C8B9-C0AC-4FDF-964E-094812A1ABA4}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_b@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="G21" xr:uid="{A086C563-5720-4E8A-A5FB-780B7131ADC4}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_b@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="G22" xr:uid="{A98782A9-DB2F-48C4-9087-6000C3D43C63}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_b@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="G23" xr:uid="{6B49B083-5326-48D8-B817-6B9DBC80867C}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_b@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="G24" xr:uid="{83DD76D0-0ADE-451F-B7B6-EB9F2F77FE78}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_b@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="G25" xr:uid="{66718E8C-66AA-4998-A0F5-4E8A77750EFE}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_b@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="G26" xr:uid="{9793EB7D-6193-43AE-B1EC-90AC965E6B5E}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_b@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="G27" xr:uid="{8676818F-8ED6-49AB-9458-24A01BB83EF0}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_b@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="G28" xr:uid="{1D8E3E7A-5ED8-4F6B-9A0E-9B011B224D0E}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_b@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="G29" xr:uid="{38F91CF6-B3C8-4158-AB3D-88FD021056F8}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_b@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="G30" xr:uid="{FDC9F8B2-40EC-4F6A-8A8F-4B65A62AC033}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_b@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="G31" xr:uid="{69B13DB4-D76E-4EBE-8CEA-3EE2710FA227}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_b@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="G32" xr:uid="{5C88B108-C872-4997-BE77-DA0B09471C2D}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_b@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="G33" xr:uid="{EE662BAC-3A6E-4702-8889-623214C1993E}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_b@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="G34" xr:uid="{4121B7E9-2778-4755-8FD3-02AB8B22E004}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_b@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="G35" xr:uid="{63B09511-2741-4E16-8F1D-83422765F652}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_b@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="G36" xr:uid="{B61029D5-FC6D-4A7E-8A30-BD7D49B8EAF5}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_b@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="G37" xr:uid="{1BCFF77B-7EA2-435C-804F-294388D2556B}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_b@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="G38" xr:uid="{E24C12FE-1FE6-4CBB-B2C3-B28B3EFEBC68}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_b@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="G39" xr:uid="{87055355-C7D3-4B22-8B5B-2C80AB4B25D0}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_b@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="G40" xr:uid="{65306AB3-0E14-4FD1-842A-72EC830134C0}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_b@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="G41" xr:uid="{2305F350-E991-47BE-B0F0-9AC0EF1F1641}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_b@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="G42" xr:uid="{A79AB511-E61A-4E03-96DB-1241F1E56AF0}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_b@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="G43" xr:uid="{F545B25F-DF4B-4EF3-BFC9-1484C89E4D1B}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_b@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="G44" xr:uid="{3766F01B-C6D9-4669-8766-C48B8ABF05C1}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_b@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="G45" xr:uid="{D3EDDC28-8183-4C16-AD0D-357E6379D37B}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_b@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="G46" xr:uid="{D4C8BFA7-36B0-4D3F-8C43-D8D49B5B88D1}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_b@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="G47" xr:uid="{2D01C002-7BC2-47C2-9286-7DA88E3676E0}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_b@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="G48" xr:uid="{6AAB9313-B4B5-449D-8718-648A2A1AEE91}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_b@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="G49" xr:uid="{4C80738A-5FBE-4459-A809-818E73E1BA26}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_b@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="G50" xr:uid="{8BDE0960-D984-423C-947A-5352682F1EF5}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_b@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="G51" xr:uid="{8BBA9B41-A4D1-4D9F-B9B9-C8A5136BEAB0}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_b@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="G52" xr:uid="{32CAF674-BDC9-4088-9D2F-5B7A147DAAF3}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_b@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="G53" xr:uid="{86BC69CE-4FC6-4196-8F5B-5414CA3E5CFA}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_b@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="G54" xr:uid="{07C822FC-1325-4824-A9B4-87D6C789483E}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_b@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="G55" xr:uid="{AFBF18B2-E56A-4785-B41B-6A08AB4820B0}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_b@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="G56" xr:uid="{59916873-9F78-4DAD-B1D1-03096E70113D}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_b@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="G57" xr:uid="{70423071-489F-427F-8D9F-21F36C1407D6}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_b@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="G58" xr:uid="{68A8EF3D-914A-4E22-AA45-2D7D452637EE}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_b@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="G59" xr:uid="{C10BF419-73C8-492F-8026-41D218D2D2BB}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_b@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="G60" xr:uid="{F349F2AE-965B-4E53-9D2E-814EA5F76269}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_b@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="G61" xr:uid="{A9B3A047-6771-4745-BF14-1B880769C0F6}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_b@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="G62" xr:uid="{523B94F0-D93F-4834-929F-16B1031C9D8E}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_b@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="G63" xr:uid="{69A76E00-E2B3-4660-9E08-537E98F7220F}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_b@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="G64" xr:uid="{80DCEE77-ADD0-4F42-BD3A-999299B5E3BE}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_b@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="G65" xr:uid="{081ABA92-756C-4D1E-982D-C53D13D86392}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_b@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="G66" xr:uid="{0CC51F14-0EE2-4C09-B3DD-8DCE62376441}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_b@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="G67" xr:uid="{1A58B0E3-6C85-489F-A2FC-C278AE8308CF}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_b@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="G68" xr:uid="{2CC25D73-D809-49FE-B181-649F36E4CED4}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_b@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="G69" xr:uid="{48D6D158-A4BB-4092-A8DC-BE3E704184DC}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_b@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="G70" xr:uid="{D0BDD16D-BA18-49CA-83E0-C7168778A4D7}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_b@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="G71" xr:uid="{1503E076-7E00-4270-81CE-AA6E003A24F2}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_b@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="G72" xr:uid="{FDBE45AA-705F-4374-A341-1D74AF5FDBB3}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_b@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="G73" xr:uid="{F685E176-51BA-48F0-AB13-4789784B5B2A}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_b@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="G74" xr:uid="{0B45B6E0-282E-42DE-8202-41F24D822A5D}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_b@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="G75" xr:uid="{A294D21B-00D0-465E-8B11-CD8766BC06CA}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_a@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="H5" xr:uid="{56E63D15-0BCA-401C-B19B-06D447A12AB6}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_a@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="H6" xr:uid="{1900609F-9A71-46E0-805C-E41FBCA4370C}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_a@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="H7" xr:uid="{24E1F8CB-09CD-474F-AFB3-1B78CCDF3B19}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_a@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="H8" xr:uid="{688FC748-44FE-482E-BF0C-AF5D909B385C}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_a@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="H9" xr:uid="{1D36F3D8-B3D2-4A76-B916-A7EF3D40C5E4}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_a@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="H10" xr:uid="{856E70BC-AF04-45FA-9BAC-49247E5A4BD2}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_a@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="H11" xr:uid="{7F80F3A9-9C21-4A07-8B79-6DB0711D1E1B}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_a@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="H12" xr:uid="{51726A06-9979-4B8E-BA2C-C01A462362E3}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_a@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="H13" xr:uid="{0BC1D620-D918-4BFE-8C11-BD1F3F1005E2}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_a@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="H14" xr:uid="{49B7BDE1-BEC1-4501-A928-1A84AA96B3FB}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_a@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="H15" xr:uid="{2A36F1A0-E25D-41A2-B55B-CB8CE573911D}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_a@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="H16" xr:uid="{415C7D32-4C1A-4C2D-B5A6-4039BD6E984D}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_a@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="H17" xr:uid="{5E01D48C-831E-4095-992D-E9D0D2EDE2E9}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_a@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="H18" xr:uid="{D14165E0-8CAD-4E88-9A47-53164E915D43}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_a@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="H19" xr:uid="{17C26C12-09EF-482F-A73A-14EFE5D411B9}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_a@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="H20" xr:uid="{69756282-1CD1-4F4E-984B-76EBFD5E2FA0}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_a@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="H21" xr:uid="{0BE7C631-D5AE-495E-BD02-DA16C46BF4E6}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_a@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="H22" xr:uid="{83E817B8-8189-417F-985A-F9ACBA908257}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_a@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="H23" xr:uid="{45CF15BD-104C-44DB-9BBF-B11397ABCFE6}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_a@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="H24" xr:uid="{CDC04F10-6327-4A44-9AA3-BA77249DA373}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_a@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="H25" xr:uid="{22656376-21DF-46DC-893C-2D701D9984B8}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_a@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="H26" xr:uid="{C3C1812A-9893-41E6-8EBB-F726A65368CD}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_a@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="H27" xr:uid="{33D396CB-5E60-46FE-B4F8-1F122C4942BC}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_a@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="H28" xr:uid="{DE0C6CCC-034B-4506-ABE4-E6F7FC5A1C66}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_a@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="H29" xr:uid="{8D6DDB5B-167A-4D38-9849-1D22D1A2D2CE}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_a@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="H30" xr:uid="{A07BD6C7-D46D-4FD8-BEAE-0C205E4C4872}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_a@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="H31" xr:uid="{0119C5B2-7669-410A-A232-D889FDBE00F7}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_a@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="H32" xr:uid="{545DDBF4-1A43-4477-BDFB-A9EC82E7D8B9}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_a@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="H33" xr:uid="{863014BA-3ED2-4858-B74A-D6C144D3DC8A}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_a@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="H34" xr:uid="{15EFAEE8-12CD-46D6-9219-EC7239B38F0A}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_a@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="H35" xr:uid="{31D19246-DB7E-4AFE-9CD4-ED2A154A38C1}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_a@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="H36" xr:uid="{EB843FDB-C4D1-4D0C-83C2-F7353C5F98C5}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_a@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="H37" xr:uid="{D5397276-8B82-4B5C-8EE8-30087459E26A}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_a@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="H38" xr:uid="{1FA636A9-4D9C-4B37-AC93-43538915E67F}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_a@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="H39" xr:uid="{E09CCF4A-CD7F-4033-B9E4-1F87D402151B}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_a@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="H40" xr:uid="{1F9706F8-C91C-4E37-B28B-957483EF9DB1}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_a@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="H41" xr:uid="{4B53A2AA-1E99-4D0A-B741-F89767E1C51C}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_a@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="H42" xr:uid="{0CA9A7F6-4272-4963-9D7B-FE5D16297639}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_a@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="H43" xr:uid="{CB34E99D-29D1-4269-B9D2-566B43E7C1D6}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_a@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="H44" xr:uid="{4945F511-01FE-4249-8311-A463902953F4}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_a@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="H45" xr:uid="{1239B257-676B-488F-AA97-7F2312C1B32E}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_a@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="H46" xr:uid="{C58DB5E5-140C-4548-ADA4-23D64A659FEE}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_a@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="H47" xr:uid="{B562DE2D-8A39-462D-94FA-F3DC4E8949DE}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_a@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="H48" xr:uid="{8D5D7A06-008C-4437-BF12-E9FB84987404}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_a@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="H49" xr:uid="{706739F1-86A5-4906-B009-C9D2711A8A52}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_a@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="H50" xr:uid="{F0BF6C4E-63CA-4D46-A305-1C302C188D99}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_a@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="H51" xr:uid="{6E072655-B2A1-4EEF-9485-C2F10B412402}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_a@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="H52" xr:uid="{742610D3-6DCE-48BB-BF74-D2BF72DDC452}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_a@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="H53" xr:uid="{1D31A199-E88E-4107-B65E-12B97A3A5794}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_a@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="H54" xr:uid="{A56107DF-B44B-4FE2-B499-4031AA3560DA}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_a@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="H55" xr:uid="{839BA93C-2FC7-47D6-AB7C-0F80668D803C}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_a@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="H56" xr:uid="{7EBAA039-E038-4B8F-9B8A-606191BABB0D}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_a@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="H57" xr:uid="{3F378A71-F9DC-4264-84A7-1BD01F0D9678}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_a@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="H58" xr:uid="{57EC2353-7526-43B8-828C-CEDA6E7B9BA2}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_a@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="H59" xr:uid="{CB42ECBD-C6BF-4F09-A37D-719C20E6BDA3}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_a@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="H60" xr:uid="{42CC3E93-11F2-4A8E-823A-2C2E039DBF67}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_a@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="H61" xr:uid="{B211BC84-90C3-4DCF-A337-DF74EF8D826A}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_a@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="H62" xr:uid="{486BDA20-A1D6-4F88-9A15-362C0AF2EEEC}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_a@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="H63" xr:uid="{91815483-137C-42E7-AFBC-3A8FF8FFDADA}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_a@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="H64" xr:uid="{C0B6E978-9494-4DA3-9B23-B063A3CCADB9}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_a@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="H65" xr:uid="{11DE8137-7EFC-4AB4-A9D1-FB2A41993C81}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_a@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="H66" xr:uid="{7BEE5F53-6696-4AFE-BF20-C24995153056}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_a@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="H67" xr:uid="{2559083A-C2D7-4208-96AE-AFD4FB33484D}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_a@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="H68" xr:uid="{A6F02790-8E58-4F24-BD16-D08BFB345EA4}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_a@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="H69" xr:uid="{8BF4F567-3B61-4DB0-9904-55390DCF0A05}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_a@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="H70" xr:uid="{0EDC9000-06CF-465B-8B29-A48A3E2A14F6}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_a@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="H71" xr:uid="{83F4E2F8-8299-47EC-8CAB-8A7A80E794B5}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_a@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="H72" xr:uid="{BCEFEFFC-8A58-4B85-8CFE-82770FF85A52}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_a@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="H73" xr:uid="{1F71226E-C2A9-40EE-A793-E2FBBB7CAB0B}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_a@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="H74" xr:uid="{FC181C71-149B-4693-9876-BD6526655520}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_a@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="H75" xr:uid="{AB84726D-64BB-4747-BE2A-CBBDD011A3C1}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_l@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="I5" xr:uid="{2D4A9A1F-522D-4483-82E2-41FA1F7A4764}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_l@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="I6" xr:uid="{3C795C11-5B3A-4DD7-9F14-FB8F6C8ACFA2}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_l@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="I7" xr:uid="{634B88B9-97CC-4DA9-B32F-8134832EC170}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_l@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="I8" xr:uid="{F4CDB439-6E56-4166-B133-8E13DE519684}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_l@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="I9" xr:uid="{9A96CBC4-C2AB-4683-9DB7-1187A4251FD7}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_l@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="I10" xr:uid="{08B1C053-EDAF-47A2-BC0C-D5B2208E0136}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_l@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="I11" xr:uid="{34F52088-9A03-4E2E-984B-438DAE49865B}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_l@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="I12" xr:uid="{1910EF04-9EFB-4914-BC57-11877925F257}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_l@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="I13" xr:uid="{3FEC5704-65BF-41D4-8F64-BF6EEA686269}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_l@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="I14" xr:uid="{99C0040F-1ADE-47F5-91CC-C34AB88247E6}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_l@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="I15" xr:uid="{09E531C1-95E9-422B-91EA-720C066B3E77}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_l@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="I16" xr:uid="{B47DE94D-8718-4000-BE37-27043328AF53}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_l@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="I17" xr:uid="{6604ABC5-8690-44A3-AA87-9D393A200434}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_l@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="I18" xr:uid="{6E4BB6EB-6A30-4A47-95D0-4344F0D45C86}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_l@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="I19" xr:uid="{8904149B-06CD-49E6-9B01-1E06A96D20DA}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_l@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="I20" xr:uid="{F6D3B1AE-37FD-4225-803D-14716BAA2516}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_l@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="I21" xr:uid="{9CD374AD-B22C-4846-BCF3-65FC1694670A}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_l@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="I22" xr:uid="{D9389BB8-747B-4F6F-953D-8BBAE49F7AB4}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_l@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="I23" xr:uid="{71E9D7B2-221D-4B44-A422-B262C20C7220}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_l@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="I24" xr:uid="{61B9325D-CE48-407F-A5A0-25E63AF0BD35}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_l@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="I25" xr:uid="{E9337AF5-7D83-48D5-9371-9DB569CD7768}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_l@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="I26" xr:uid="{03B960C2-4F4C-417D-9FB1-DF28B1A368FE}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_l@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="I27" xr:uid="{5EB07BD5-8034-4D9D-8ACD-616C4CBE8551}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_l@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="I28" xr:uid="{9B4F6E1A-136B-44FE-94B3-AA17DD4AF671}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_l@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="I29" xr:uid="{DB9B25EA-60D7-4B2A-8E75-1FAF21B0BF13}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_l@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="I30" xr:uid="{72FD631E-FB91-4E26-9C23-A6057AFAAA3D}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_l@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="I31" xr:uid="{8C7BA9F8-1E59-4E52-BA9A-879826C1076E}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_l@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="I32" xr:uid="{AC525563-3774-42F0-AA6F-02E8B18C1507}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_l@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="I33" xr:uid="{3F570D4B-AC0C-43F6-B97A-9AB3810E084A}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_l@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="I34" xr:uid="{B0D0A2FE-83A0-4604-B4A2-534A3ECF1192}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_l@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="I35" xr:uid="{3FB1A34F-2708-4BE5-B0AF-ABA46077535C}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_l@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="I36" xr:uid="{12134E20-2416-4ED3-95D6-85F339E7B678}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_l@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="I37" xr:uid="{163FDA27-2879-468C-B038-2EAED888EF49}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_l@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="I38" xr:uid="{2CDD65C7-5293-4905-9BD0-22F5B284FC37}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_l@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="I39" xr:uid="{862A6AF9-878A-4580-BBCD-270282C4FCED}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_l@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="I40" xr:uid="{036EA3E4-B700-49BE-A04A-41A922FCAB2F}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_l@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="I41" xr:uid="{98C595DC-C4B4-413E-94D9-7C6224D9AE79}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_l@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="I42" xr:uid="{33E06BFB-97F2-47B1-AE5E-CC425AC7F4B0}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_l@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="I43" xr:uid="{EB4B27E4-24B3-4626-BC70-8A7C56DA9713}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_l@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="I44" xr:uid="{11BE047F-7782-4F07-A68C-CBFE93406A4E}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_l@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="I45" xr:uid="{725E1462-ECEF-47F0-B505-7E4B239260AA}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_l@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="I46" xr:uid="{8CB051F8-56B5-4225-8056-5DDFEB6C7BD0}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_l@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="I47" xr:uid="{99489E82-A60C-4F36-9175-4890445ED088}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_l@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="I48" xr:uid="{0253114F-483D-456D-86F3-FED9CB5215EE}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_l@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="I49" xr:uid="{7499022F-236F-4B30-AFFF-9E62D9DA7CBF}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_l@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="I50" xr:uid="{0455B8EA-F5D8-4981-807A-0A4771C9DD80}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_l@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="I51" xr:uid="{80B6DAEF-9EBE-45D4-BD72-0370421CED27}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_l@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="I52" xr:uid="{27E216E3-D405-48BD-B78B-00F8759D179F}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_l@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="I53" xr:uid="{FFEF5BB4-AE95-46A8-999F-63CBF33E152E}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_l@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="I54" xr:uid="{BC68A623-8084-472E-B01D-077F92080C91}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_l@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="I55" xr:uid="{D2C8EF60-C77D-4977-B351-7095624266E6}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_l@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="I56" xr:uid="{7D0D8587-3244-4EA1-8E6D-735D061516E9}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_l@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="I57" xr:uid="{B9637142-3B94-48B5-BB46-169AFF5FCE4E}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_l@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="I58" xr:uid="{F7796B09-7307-447B-B1E9-C4355FA95265}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_l@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="I59" xr:uid="{17A98EB3-F58A-4C2A-93E4-716B40FAF725}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_l@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="I60" xr:uid="{727AB550-D892-41AD-9FB4-86C700E3831A}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_l@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="I61" xr:uid="{BFE044E0-C000-4D2E-B129-4B819134FEA1}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_l@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="I62" xr:uid="{20E79A47-41AF-410F-8854-1ADEAEF45C7C}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_l@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="I63" xr:uid="{28441146-67F8-4452-A922-646F67EA5BEA}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_l@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="I64" xr:uid="{677841BE-3CE6-445E-B18E-F7A0CB9CC8F5}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_l@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="I65" xr:uid="{D1BEFB59-05BD-4E74-8EBF-D78F89D39E2C}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_l@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="I66" xr:uid="{826B0B9A-F93C-4952-B0D0-AF3AC32EB420}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_l@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="I67" xr:uid="{B7819D9D-4F54-4A88-B33F-3C7B62252A2F}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_l@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="I68" xr:uid="{90252C18-08F8-41EF-A5A8-7A1FFA81566A}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_l@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="I69" xr:uid="{1C652E36-887A-402E-AD33-1441297FA02E}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_l@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="I70" xr:uid="{AC622217-0281-450C-925B-E48C07C3B590}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_l@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="I71" xr:uid="{53B6B944-748F-40CB-A3CA-D8D2417F99C2}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_l@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="I72" xr:uid="{ACA76A8B-A929-4795-BE06-48320E3ACE6E}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_l@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="I73" xr:uid="{DEC63F93-424A-44AD-8CD1-CF4B2E5D9B0D}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_l@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="I74" xr:uid="{F4915C11-7A14-4866-9429-757308AAC556}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_l@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="I75" xr:uid="{902DF190-A4B9-40E7-AD5E-7E2C2F1844A4}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="J15" xr:uid="{B91C58A2-A23D-4385-89F3-EEA85A6F9A5D}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="J16" xr:uid="{27142966-B698-4B51-AE4E-9EC54BD545CC}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="J17" xr:uid="{411C76FA-F56F-4981-8618-FEAA1B5B2DE4}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="J18" xr:uid="{E03DB8B6-5AC1-490D-BB52-EFECDD2FFF87}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="J19" xr:uid="{05710963-C62A-4058-8EB6-AEE579C46099}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="J20" xr:uid="{D6C90CDC-08D0-4F46-8069-227676E30B6E}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="J21" xr:uid="{DE8A3F10-AAC5-42EC-A146-D178FDA687C0}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="J22" xr:uid="{4E87A4EA-A994-490D-8678-4109BD277407}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="J23" xr:uid="{A175A9A5-1E79-4476-930E-7C73F30DF56F}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="J24" xr:uid="{B7556A73-FBE5-4A93-ADBA-4EF55A38B7F4}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="J25" xr:uid="{B86A94CD-C00F-4783-859E-BA7F9053C4CB}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="J26" xr:uid="{65DB9991-F319-4404-BBF1-2746E75DFDA7}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="J27" xr:uid="{EBB2975F-DDE7-4A8A-BD9D-29986D0E98DC}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="J28" xr:uid="{87CCB2F5-7E49-4A69-8FC4-CE4C044B0937}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="J29" xr:uid="{DDB9C301-06C3-484C-954D-DFF2E2468621}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="J30" xr:uid="{B4E0BFD2-003A-48CE-9222-655765A1FD3B}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="J31" xr:uid="{B5A2061D-0DA3-441D-B6A3-D72EF871FC16}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="J32" xr:uid="{EC7BEEF6-CF34-4CCA-A22D-98E491FD9A24}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="J33" xr:uid="{D04458ED-032A-4BB9-BFD6-ACA2696C508E}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="J34" xr:uid="{381451B0-47C2-4857-882A-05FDDB74FA51}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="J35" xr:uid="{357B755C-A827-473A-81B6-37B5D613A244}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="J36" xr:uid="{4900EA73-18D2-43C6-A6F2-A5194FBF061A}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="J37" xr:uid="{5D27C7F9-6830-4674-8A9D-2669014E456D}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="J38" xr:uid="{76A216AB-E11B-4420-816C-77BA439F2FD1}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="J39" xr:uid="{97E8B93E-2855-4916-8CD0-F932749D9A36}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="J40" xr:uid="{E5AB1B7F-14C6-48A8-81EC-931C9AE8EF11}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="J41" xr:uid="{82EBD561-088A-4939-9CB7-15B1F4FCEC19}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="J42" xr:uid="{9B8A9819-D161-4563-9511-25107DDD0DA3}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="J43" xr:uid="{7953ECF4-9A47-4000-854E-47BDBE763B0C}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="J44" xr:uid="{C75264DA-B764-41D9-AA9B-A57E1589828D}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="J45" xr:uid="{520E6F8E-F523-4F9C-BED6-D46EFC73B52B}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="J46" xr:uid="{10AE8CAE-CD2A-4A23-AEE7-165A32E03E66}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="J47" xr:uid="{B5EDF553-91F8-4D0F-95A3-F68F9BC10ABF}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="J48" xr:uid="{39B1CE29-91E7-4CD9-A918-CB2F7A66AF2F}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="J49" xr:uid="{09E3E6D1-4544-4D86-BD24-E16DCEBCBBE5}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="J50" xr:uid="{95E71D58-A000-4C5B-BB65-7F86428EB821}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="J51" xr:uid="{02BFC61D-5F44-43D0-B3F8-A485A68B0CA0}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="J52" xr:uid="{F1151408-9269-48BB-AFF8-BD8BC4A6C40A}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="J53" xr:uid="{7AF4A78D-404D-4080-B87B-BC4B2F74C0B3}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="J54" xr:uid="{4C6AECB9-1F60-48D4-873F-CA6EE295D82A}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="J55" xr:uid="{AF8035A2-9881-4C25-88FE-2EB84A961706}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="J56" xr:uid="{3388D565-30D4-4E99-BE57-BAD63A7A0314}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="J57" xr:uid="{B13CFF7B-F6F9-487A-A00C-ECEBC73B003F}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="J58" xr:uid="{F337165E-F095-4E6A-BAF4-9E50632860E1}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="J59" xr:uid="{1A4BD0C1-5467-4ED5-97E8-C0DD63E67C2D}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="J60" xr:uid="{965A6FA5-266F-434F-89C8-422F653199B1}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="J61" xr:uid="{F585F27F-11BC-44E5-A18F-FE95C87588BC}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="J62" xr:uid="{601659D6-9E74-4C36-8252-ECA61C7DF925}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="J63" xr:uid="{21874BA4-167C-4B7E-8B03-F25238E97EE0}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="J64" xr:uid="{C1DFF0C2-63DE-4C59-8154-451CA0D21EAE}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="J65" xr:uid="{9A165468-822F-4F29-90AF-E09CD5EA49C2}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="J66" xr:uid="{4A81A81F-041C-44B6-963A-A8C413F422E2}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="J67" xr:uid="{8A038890-FEF3-4EAE-99DD-3B2DB8606044}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="J68" xr:uid="{4BCAAD44-03EC-4317-A4E1-2BE61AB3CA44}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="J69" xr:uid="{BA528656-F76F-4163-A657-86407186F7F8}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="J70" xr:uid="{106706EE-8530-4239-A0AB-85155378CE9D}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="J71" xr:uid="{3D1267DE-3647-4F95-A437-0086097719BF}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="J72" xr:uid="{83A84971-A572-4F7F-AF98-FB34E273A4C9}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="J73" xr:uid="{DA8E7689-F404-400C-A5C9-5F41AE4EA7DC}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="J74" xr:uid="{A275153D-4F2D-465B-BFA8-CB2033F6163F}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="J75" xr:uid="{54D6ED36-397E-47C2-B219-329E19714046}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r1@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="K5" xr:uid="{4B7BABBD-50B2-4752-85D2-BD81356C343C}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r1@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="K6" xr:uid="{84720965-0DB9-496A-8149-FEB0D603887D}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r1@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="K7" xr:uid="{F4D0831D-79F0-4D8F-A9B7-0FE463E67B72}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r1@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="K8" xr:uid="{682C608E-8A95-467B-8A49-E57602F2C584}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r1@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="K9" xr:uid="{9AB4B665-AEFC-4B7E-8250-9A126DB051B3}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r1@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="K10" xr:uid="{D18C854D-CEC7-4855-980C-CFAFE9C9628F}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r1@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="K11" xr:uid="{63D18F28-3C3D-4E8A-8392-FFCCC4A801EF}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r1@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="K12" xr:uid="{EFEC2006-D145-4DF5-8734-5DC97DD88600}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r1@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="K13" xr:uid="{09B7B625-05BE-4F5F-BB9E-BD03CDABA77E}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r1@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="K14" xr:uid="{F3F7FB24-2FB5-47F5-BCC7-E3A7C876A50B}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r1@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="K15" xr:uid="{5A35D2F8-B9D7-47E7-B832-E14F76AF33D6}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r1@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="K16" xr:uid="{384B5338-287E-4D7F-BD01-C35BD008E851}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r1@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="K17" xr:uid="{39CB325B-D12B-43E4-9142-BED09342FE8F}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r1@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="K18" xr:uid="{43B1983A-045B-4622-8973-6E74F42006A6}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r1@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="K19" xr:uid="{A8759723-247C-444A-ABE4-41171AEC4FC3}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r1@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="K20" xr:uid="{6D0B27FE-9936-4E23-8BFE-8AF3A30E7ABE}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r1@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="K21" xr:uid="{78E17AAC-16EE-472C-AA96-E1C9669C679F}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r1@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="K22" xr:uid="{18CE5DDA-31D3-483D-9968-0BBCC2C4898D}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r1@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="K23" xr:uid="{03BE87D2-DD12-4262-9E8F-E0BDB747328B}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r1@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="K24" xr:uid="{0911206A-829B-4B42-800F-1BA4DF23A105}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r1@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="K25" xr:uid="{244A2373-43DD-45CC-8F8E-C7FAD44F897B}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r1@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="K26" xr:uid="{C922CA16-BEB6-44D5-80AD-FE173E549DFF}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r1@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="K27" xr:uid="{A674ECB2-32CB-42FF-8EDE-805E0B04B089}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r1@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="K28" xr:uid="{E51C8CAE-9193-4490-B8BB-68CC96037462}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r1@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="K29" xr:uid="{2ED33CCC-0856-4F0C-8377-7C5012CEB42A}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r1@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="K30" xr:uid="{7D4835CE-F71B-4A49-B288-0B38FE5B01C1}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r1@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="K31" xr:uid="{C8484E8B-3C25-49FB-8847-A120A9EDF4BA}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r1@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="K32" xr:uid="{D5E8F5BD-F158-40CB-AD7A-952AFF53B475}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r1@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="K33" xr:uid="{76D8D3D0-5F6A-4B38-9459-3F11B206E9F5}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r1@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="K34" xr:uid="{8A3B7CBD-EA24-4246-BB25-5F7363E31D5A}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r1@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="K35" xr:uid="{42479001-5215-4975-9FB6-A1A8274BE09B}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r1@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="K36" xr:uid="{9E99596C-B2FD-48CB-B898-6AECCC73A2CB}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r1@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="K37" xr:uid="{B500FB39-9032-43DB-A1C4-EEF883EF7866}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r1@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="K38" xr:uid="{09B90DEF-A851-4B25-963D-34699B89F73A}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r1@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="K39" xr:uid="{D935BD4C-F3F1-418B-8653-F2155EB13163}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r1@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="K40" xr:uid="{03F19FD8-0535-4FBE-8E2D-F5FB8B8B9C4B}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r1@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="K41" xr:uid="{4A8AE558-B4A2-4984-ACB0-E95650555C41}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r1@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="K42" xr:uid="{D028C57C-0FE5-4C10-B3A3-FA5016EB20B0}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r1@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="K43" xr:uid="{97BC1120-5971-4FA8-AB1A-B782BE92B9C1}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r1@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="K44" xr:uid="{BB751319-085B-452E-993C-92AA748B353B}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r1@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="K45" xr:uid="{C62908D4-8453-4060-BB2C-F1E89A9AE59A}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r1@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="K46" xr:uid="{C0DFDE56-51C3-445E-AF67-EE509347DEED}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r1@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="K47" xr:uid="{B3BAE433-E0F4-4D83-AE80-34DA18FF39AC}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r1@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="K48" xr:uid="{1B83E096-AA8D-4A1E-B57A-BA7BF6784A26}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r1@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="K49" xr:uid="{CAFFA203-671B-4A6D-93D0-6CC12749BC46}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r1@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="K50" xr:uid="{747CD609-30BA-4101-84F7-3AEBFA9E4668}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r1@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="K51" xr:uid="{314C1988-09E6-43AA-8CE8-42DA77965D59}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r1@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="K52" xr:uid="{A6B76A24-AB53-4C65-BF4C-AB0ACBE20B7E}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r1@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="K53" xr:uid="{9DC3EF34-5B95-4D42-8D00-4578597B44BC}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r1@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="K54" xr:uid="{F93096C5-322C-499E-B23B-8A3C2D6B2BAC}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r1@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="K55" xr:uid="{81E1A32B-8185-4798-A026-1A4324FA4CB2}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r1@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="K56" xr:uid="{6EF42075-96AB-4152-BE8B-2CDF8DA42AC9}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r1@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="K57" xr:uid="{C5CD4D39-8423-47C5-BCC9-E91FA6419F3E}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r1@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="K58" xr:uid="{149337CA-9046-4806-BA64-E418421532D4}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r1@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="K59" xr:uid="{7E8162F7-4AE3-4523-9615-BD237592304F}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r1@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="K60" xr:uid="{C5334DE7-FB14-45F6-98DB-1E2174DD286B}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r1@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="K61" xr:uid="{2A542C6B-4C00-42D4-86F4-3CCF741D3D20}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r1@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="K62" xr:uid="{991B8978-E4BA-497F-A949-1B336080862B}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r1@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="K63" xr:uid="{86D2529F-42A3-4791-A6FA-A4985EA80B92}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r1@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="K64" xr:uid="{29C86D8A-44E6-40C2-BD9D-53CB90DBB793}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r1@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="K65" xr:uid="{854C437E-D440-47BD-B54D-2E0400FF5D1F}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r1@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="K66" xr:uid="{94A16E10-ED14-4838-88BA-F35FBE3EA182}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r1@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="K67" xr:uid="{E700118D-60C3-41BD-9FF7-06226E7EDB2B}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r1@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="K68" xr:uid="{608FDD40-DD5D-410B-A102-2636D19C168F}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r1@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="K69" xr:uid="{41C096E6-0924-435A-BF19-55DBA6818F85}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r1@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="K70" xr:uid="{4E3F7920-8387-49FE-BE5E-FCF26110D09E}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r1@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="K71" xr:uid="{94C7D42A-4992-44D9-B92B-B78EC5B560A9}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r1@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="K72" xr:uid="{9865BEF0-5B3C-467B-834E-C9F7683A9169}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r1@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="K73" xr:uid="{C7BBB022-56BC-4E6F-B9F3-581D055B21CC}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r1@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="K74" xr:uid="{FF69735D-5C22-433E-ACB0-253CA76DA08E}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r1@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="K75" xr:uid="{ECA42444-9124-4925-868A-5C2E54C4892B}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_DD@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="L5" xr:uid="{6A7E1FAA-35F0-4632-837F-EA530F6D1F67}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_DD@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="L6" xr:uid="{B54CBF7E-1110-4744-B066-973A33632AF4}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_DD@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="L7" xr:uid="{D3FB20CC-4AC2-4621-AE45-F513014714A9}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_DD@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="L8" xr:uid="{F0CF4E46-3C5A-42B2-A5AB-AA32ADBC6428}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_DD@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="L9" xr:uid="{E3A43753-72F4-4400-9D43-73CCFF489F0B}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_DD@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="L10" xr:uid="{C7A12EDC-BB1A-41C7-9056-733456E697F3}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_DD@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="L11" xr:uid="{A52B70B0-1428-4E45-8BCE-15442AD5843B}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_DD@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="L12" xr:uid="{5D7171A6-7B16-498E-A329-4A8D6FDBD555}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_DD@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="L13" xr:uid="{D2FE6614-C3E2-40D3-80D1-C09A70777BBC}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_DD@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="L14" xr:uid="{5A33C0D9-76D3-43F8-86B0-4AF37057F861}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_DD@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="L15" xr:uid="{619EAD4F-01ED-48A1-8528-83AA3EED6E43}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_DD@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="L16" xr:uid="{96D3CC58-47C1-40C7-A693-B9DF67D3BC0E}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_DD@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="L17" xr:uid="{9AC774C5-672A-409C-9139-44602FA98007}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_DD@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="L18" xr:uid="{09DE6571-76FA-48D5-98FB-6C37DA73AB5F}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_DD@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="L19" xr:uid="{5818651F-D501-4CAD-8C20-1E408EB38088}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_DD@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="L20" xr:uid="{C528F54E-EBA5-4E83-871D-A53443BCED93}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_DD@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="L21" xr:uid="{302A07F9-5E9B-462B-8F32-C14D2E436237}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_DD@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="L22" xr:uid="{514156AE-30CA-49B5-8ED8-8B5F2B91A439}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_DD@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="L23" xr:uid="{BB01E9A1-66C3-4138-B0CF-24803122E00E}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_DD@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="L24" xr:uid="{7A6EA4E3-F719-4466-A6FF-F3420C68171A}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_DD@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="L25" xr:uid="{51FA6A36-A992-4FE3-BDCE-97A7E9B2D895}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_DD@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="L26" xr:uid="{AE3F18F3-F7A2-4C90-B74E-557A34D59256}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_DD@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="L27" xr:uid="{136F9F3F-740A-4D99-860A-EF5DC43C831A}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_DD@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="L28" xr:uid="{A8750247-A509-4C16-9F7F-3EF52E56208A}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_DD@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="L29" xr:uid="{0D00108F-5C80-4834-B692-2F252949A0D0}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_DD@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="L30" xr:uid="{44578007-B5B3-409F-B4EF-B932CDFD7427}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_DD@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="L31" xr:uid="{08FB7A9C-C4F1-4AA2-BF31-AE240233F194}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_DD@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="L32" xr:uid="{B8AD4BCF-1F88-4E01-8A6D-D28D6F845D00}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_DD@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="L33" xr:uid="{FB761483-135E-4B14-9991-8224EA320DBE}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_DD@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="L34" xr:uid="{9D9FF609-A098-47B1-8862-A4D1DA4836AA}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_DD@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="L35" xr:uid="{701A9C7E-5C9C-46F2-9E12-0E14B0FAABBD}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_DD@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="L36" xr:uid="{92D8A879-EB1D-4069-BE6E-E08D32A3974E}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_DD@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="L37" xr:uid="{EFB1569A-D8E4-43CB-81BA-244DE7D63BEB}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_DD@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="L38" xr:uid="{D6F95D04-A44D-4134-8829-6C0AFFD440BE}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_DD@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="L39" xr:uid="{D0E015D1-751F-4C39-81BF-64791F211857}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_DD@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="L40" xr:uid="{5D8B595B-CE6C-4CEF-90B8-FC9454345B8C}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_DD@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="L41" xr:uid="{5DB54D3F-370E-4A4B-A40A-E14355A95C79}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_DD@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="L42" xr:uid="{C25A089C-5FE8-485B-8BA4-A940D33918F5}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_DD@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="L43" xr:uid="{593DCC2E-9934-4A94-8657-436438B29944}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_DD@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="L44" xr:uid="{7A0FD883-7937-4D2C-8581-1F1B7A165348}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_DD@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="L45" xr:uid="{A539ABDA-7827-4E74-8749-30DEE9B7E3B9}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_DD@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="L46" xr:uid="{C4ED9FC2-E0D0-4122-9EB8-DA8AE753F3BE}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_DD@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="L47" xr:uid="{F3CA2CB8-FA62-4304-81C5-46F90DC248A6}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_DD@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="L48" xr:uid="{3215BE87-36E2-4948-B698-10C408F4553B}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_DD@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="L49" xr:uid="{4B67B346-5E27-43F3-BCC6-67A04CC165EA}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_DD@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="L50" xr:uid="{B41071E1-C45A-45B0-9B07-B4AAA009784F}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_DD@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="L51" xr:uid="{EC6A6A82-9B9A-4872-B970-EA023D11516E}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_DD@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="L52" xr:uid="{30C25675-762D-4E6E-8EC8-0CA230732750}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_DD@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="L53" xr:uid="{6A98A617-94C2-45CF-A749-77459650550A}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_DD@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="L54" xr:uid="{4B88A304-2112-4AD9-87EB-2603B8197468}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_DD@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="L55" xr:uid="{68591083-7AC4-4B64-AF56-3C95D37D31F8}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_DD@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="L56" xr:uid="{E7D1221A-EC15-477D-AA84-6EEEF3C21050}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_DD@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="L57" xr:uid="{69E519CA-E818-4404-85F0-1E0970CB162E}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_DD@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="L58" xr:uid="{EF5C74CF-E6E4-40F2-A434-950A311C0F7E}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_DD@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="L59" xr:uid="{4CBF9374-C475-4C53-8C36-C219AC5AFE2F}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_DD@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="L60" xr:uid="{1107D7B6-9D7B-4063-82B8-F48DB597C9C6}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_DD@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="L61" xr:uid="{20F0DB10-A9FB-4EBA-B0B3-2AE76123C281}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_DD@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="L62" xr:uid="{F8358F25-9102-42BB-AF78-7A9979CCAB79}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_DD@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="L63" xr:uid="{204788B9-73F6-4E96-A46E-4CF379922ECB}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_DD@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="L64" xr:uid="{3495A0A8-18B1-430C-A42C-34C98ED2A8E8}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_DD@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="L65" xr:uid="{1209B825-5B26-4951-A277-BCB6CD7B39B4}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_DD@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="L66" xr:uid="{2C4ED228-0B69-40C1-A574-22DA78FD8D7A}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_DD@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="L67" xr:uid="{5A9A91AC-43B7-468B-9E05-BE79E1A08BBA}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_DD@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="L68" xr:uid="{110BA59F-6689-440F-BB29-A10914C84C49}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_DD@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="L69" xr:uid="{01DA7CF1-D23D-4369-958F-EF98B58C5494}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_DD@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="L70" xr:uid="{62735515-E8BB-4898-8AEE-2BFBD61FFC4A}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_DD@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="L71" xr:uid="{8E8F4540-F3AF-46DE-B5D0-A27DDD687154}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_DD@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="L72" xr:uid="{5816D31E-8121-4316-A094-D9E409E6487C}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_DD@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="L73" xr:uid="{F62D08F2-B066-46C2-B3FB-D93803CC1277}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_DD@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="L74" xr:uid="{B63A0BF8-DE33-4FD0-A696-A39D756A48E0}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_DD@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="L75" xr:uid="{F870D66F-55BE-4C9E-82A6-63D4AEE5BC91}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_e@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="M5" xr:uid="{98A32690-0FE0-41AD-AC91-F53921C79683}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_e@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="M6" xr:uid="{DCC1633A-A352-4EE7-959C-C6D4BC30D6F0}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_e@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="M7" xr:uid="{22A3AA0F-6A8C-4B80-A6CF-96AC6003613E}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_e@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="M8" xr:uid="{9682D723-F813-48EB-9A60-E81EF42FD0F1}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_e@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="M9" xr:uid="{730D2E6D-117F-4A70-AB4D-36E1B4969DB7}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_e@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="M10" xr:uid="{16CA42FB-CB8E-4202-A796-B012767077FC}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_e@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="M11" xr:uid="{5538CADD-588D-425D-877F-F52A103E5C7A}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_e@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="M12" xr:uid="{3B1B2DA3-2314-42B8-B66F-21DC753BEE03}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_e@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="M13" xr:uid="{DA019CEE-73BC-4BB7-8F68-D3C10BB1150D}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_e@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="M14" xr:uid="{9DAFF4DC-A6A4-448A-992E-9FF04EE41FF5}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_e@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="M15" xr:uid="{BEBF27FD-EEBA-4779-8526-FBB6BD1187F6}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_e@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="M16" xr:uid="{14FDFFCC-4563-4E9F-9BEF-2E2610E6EBF9}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_e@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="M17" xr:uid="{B303346D-C447-40DF-B85E-DDDF7A3B6390}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_e@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="M18" xr:uid="{3FC065BC-4309-456F-A9F6-2954E9794C1E}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_e@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="M19" xr:uid="{FCCAC8AC-AB5B-4A3C-A5B9-EDF4D2D6D9D9}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_e@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="M20" xr:uid="{BC7D5D53-40C0-401E-99D3-6E42727041D8}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_e@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="M21" xr:uid="{5EF20BA0-D4D4-4485-B988-659D0B21F39E}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_e@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="M22" xr:uid="{12D621CF-3CDE-437F-8C27-AC4D5507BBAC}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_e@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="M23" xr:uid="{EBF52E21-0FC6-40AA-BB06-0FC24ACCB656}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_e@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="M24" xr:uid="{5F02DCC7-6563-4088-840F-C57E237771FF}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_e@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="M25" xr:uid="{E6EAD476-8CF2-41F0-9657-49ED8DF70634}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_e@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="M26" xr:uid="{FF566CE3-09E0-47BA-A85B-C76E0A7DE76E}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_e@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="M27" xr:uid="{901A8696-F630-4FE6-ABAD-AF1E2300D726}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_e@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="M28" xr:uid="{AE72C018-D1E3-4952-B2FC-1E30E55C34AB}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_e@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="M29" xr:uid="{4728F334-135A-47A4-9240-6502932F956C}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_e@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="M30" xr:uid="{C472B305-8119-457D-ADA7-7DC4F705B55D}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_e@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="M31" xr:uid="{738E3FD7-0FE2-404E-BB0C-E85328EEC917}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_e@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="M32" xr:uid="{4FC986A8-A3FB-4ABD-A5B9-F2D7F6BEBB68}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_e@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="M33" xr:uid="{CA28C6F4-71F2-4045-B8D3-5F561C33C7E8}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_e@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="M34" xr:uid="{71ADA2EB-BF64-4F9C-8C8C-231794B825AF}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_e@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="M35" xr:uid="{4A4A2964-B941-437C-AC8E-9A8E75761811}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_e@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="M36" xr:uid="{181C8EEA-9DE5-49E5-8FEA-A111AA25A536}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_e@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="M37" xr:uid="{3520F02C-8468-445B-BE8B-1CA97F676AC4}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_e@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="M38" xr:uid="{456E0661-AC6C-45DE-8EF4-3D756F966BE6}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_e@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="M39" xr:uid="{18BE70F6-0271-4EE6-ACBC-B3FD8D69367F}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_e@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="M40" xr:uid="{0FFA918E-E588-42C2-A3B1-02798E873384}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_e@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="M41" xr:uid="{562D7C50-00E8-435F-BAA1-311F1708F8C4}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_e@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="M42" xr:uid="{5701E830-CD44-4DD0-AA6F-CEA5F1E3082D}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_e@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="M43" xr:uid="{D49FF25B-AB93-419A-9279-8ABB95DD34CB}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_e@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="M44" xr:uid="{731B348B-7C36-4E28-9595-1234BE172DEC}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_e@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="M45" xr:uid="{8B9F7A48-3EB1-44AD-9A6B-59320FB1E3DC}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_e@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="M46" xr:uid="{0C053EC9-2DAE-42E6-A00E-4A1069821C3B}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_e@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="M47" xr:uid="{E902C51A-0B49-4305-A539-7A0CDF6DA61A}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_e@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="M48" xr:uid="{A4E0BD14-C9BB-4766-BDB0-35F6DBA4F8D3}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_e@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="M49" xr:uid="{8EB678B6-7BE3-4D81-9545-76243C11EF1F}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_e@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="M50" xr:uid="{E4BF122C-DDF9-471B-B5BE-FBD4B57AC807}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_e@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="M51" xr:uid="{CC5BBE00-4CD7-49BB-B269-E136142ED7F0}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_e@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="M52" xr:uid="{0955A7C9-5C7B-482B-B0C9-B86769E8CD1B}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_e@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="M53" xr:uid="{DE065FC3-A6FC-435A-984D-17B998C12247}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_e@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="M54" xr:uid="{4284FBE3-F4C6-45F9-8CFD-9B9CA1DF6D02}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_e@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="M55" xr:uid="{968190F3-6378-4A6A-AD45-94FB6507A976}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_e@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="M56" xr:uid="{055AD82E-3241-4E93-BDE0-497CEE0DB1A1}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_e@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="M57" xr:uid="{CDA51FC3-27FD-48EC-BC55-2C37E34B3A74}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_e@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="M58" xr:uid="{98A54F06-F664-4C3D-BF1A-9C8552A0C43D}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_e@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="M59" xr:uid="{7BF8B5CF-7E49-40FE-B63D-55C5111685F6}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_e@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="M60" xr:uid="{8F7B981E-CBB4-4753-9BC8-D0469D7F3F6F}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_e@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="M61" xr:uid="{72834E64-39CB-4199-89B0-A71CC8772EEE}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_e@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="M62" xr:uid="{622CA196-5999-48A8-817A-33585F9F7FDE}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_e@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="M63" xr:uid="{C54ED258-89A1-4E73-BBAD-D4D0D1C689B6}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_e@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="M64" xr:uid="{B7EFEA04-B15A-4D86-A8BD-C6985FA6F57D}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_e@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="M65" xr:uid="{62262494-6D19-4919-90E6-30E30E00D886}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_e@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="M66" xr:uid="{9ECFB262-0331-412D-9CAD-5DE40F5EDAEA}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_e@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="M67" xr:uid="{594BCEC9-11A9-41F5-840B-A239049DAF9C}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_e@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="M68" xr:uid="{419C2C63-0FDC-48CA-88CE-8F449C600545}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_e@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="M69" xr:uid="{7F990572-0D37-4D4D-BB51-22EA6FA68DD3}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_e@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="M70" xr:uid="{0EA38DF7-47BA-4E89-8CF4-B822CEB0548E}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_e@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="M71" xr:uid="{6F50536D-57AA-492B-BADC-B371458E81A6}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_e@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="M72" xr:uid="{6AB4A80D-0A18-403A-93C1-5E5A1CE838F5}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_e@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="M73" xr:uid="{EC9A6371-70E8-48CE-9392-5135E81D3A90}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_e@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="M74" xr:uid="{F5FDD85B-A220-46D9-AC5D-15A8576A608A}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_e@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="M75" xr:uid="{9206DB38-6783-4643-A465-85EF60B1F3F5}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d1@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="N5" xr:uid="{8FD398CC-521D-412A-8082-8BCD6690FCA3}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d1@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="N6" xr:uid="{9845AC79-AC9D-4C51-BF72-78F62861F01B}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d1@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="N7" xr:uid="{3A21C866-FB9F-4FEA-A100-8531131D3316}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d1@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="N8" xr:uid="{DD9B99F0-2DA4-4A0A-8E67-046CD6BE602D}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d1@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="N9" xr:uid="{DFCF826B-FA57-4A4D-A3FD-9CB3C44AF371}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d1@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="N10" xr:uid="{97434C14-EBF1-4DCA-9E99-6EFE695968F8}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d1@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="N11" xr:uid="{51A0ECBC-12E7-4D4B-845C-613C2CDBC004}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d1@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="N12" xr:uid="{796B0990-DA5A-45E7-96D4-94340A0B37D4}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d1@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="N13" xr:uid="{A53A2E0E-0294-48E3-9B99-BE2C5C90BE82}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d1@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="N14" xr:uid="{82CDA422-ABF6-4C8F-9899-D7BC239CECE2}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d1@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="N15" xr:uid="{CC084D46-3BE0-4806-985F-DCDA584BA201}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d1@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="N16" xr:uid="{BD021D0C-F806-4C7D-A151-759030BF11FF}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d1@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="N17" xr:uid="{972BC5B5-7B04-4F91-850C-916C3D375715}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d1@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="N18" xr:uid="{A8E5723F-B9FB-4765-969A-22D350D7A8DA}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d1@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="N19" xr:uid="{0A772F45-AE47-45FF-8857-5C291A264B4F}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d1@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="N20" xr:uid="{A7647245-9EF3-43E9-B5E2-EC153E8A6895}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d1@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="N21" xr:uid="{9AF1B03B-6D9C-4550-BA48-FF020BA2ABC9}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d1@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="N22" xr:uid="{8A4F1951-8F62-466B-AF6E-68A588B4847A}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d1@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="N23" xr:uid="{84733D6F-259D-4507-83FC-C211C28E11A3}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d1@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="N24" xr:uid="{FA81C670-1433-4788-9842-87CAAEF68F20}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d1@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="N25" xr:uid="{B32D0B0E-40ED-47E5-A184-6A05ABD619A7}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d1@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="N26" xr:uid="{3DAF127C-36B1-410E-9EE8-6F55DDDEE572}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d1@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="N27" xr:uid="{3B862C30-2303-44B9-8C95-90DE6BBE8BCF}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d1@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="N28" xr:uid="{B7355533-21C4-4359-A72F-E0D494DA28BD}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d1@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="N29" xr:uid="{BAA81B26-5DBC-4D50-8D38-2FCBE906BE7F}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d1@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="N30" xr:uid="{86493A29-7255-454C-90BB-78BF831F8D18}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d1@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="N31" xr:uid="{49A3B44B-D905-4762-B323-C6B27FDC6D4E}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d1@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="N32" xr:uid="{3C47D2FB-FE98-4F0F-BCE2-D462315A9312}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d1@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="N33" xr:uid="{EA6236F4-9C12-4938-A592-C536591C0F5F}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d1@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="N34" xr:uid="{3D841FBA-EDCA-4A2B-8F48-380EED0DBBF6}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d1@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="N35" xr:uid="{08905C98-A5CF-4695-8463-256D6C82C886}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d1@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="N36" xr:uid="{6F512024-8075-4C3E-97D8-CE95ED307B15}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d1@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="N37" xr:uid="{243AA132-1B29-43E6-81F6-3DC70630144A}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d1@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="N38" xr:uid="{5B7627AA-8539-4D19-9788-846D2FE7170C}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d1@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="N39" xr:uid="{FD2E72E5-6CDB-4646-9108-69D16677F398}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d1@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="N40" xr:uid="{69D26E81-F296-45CB-9958-A38764D300FC}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d1@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="N41" xr:uid="{7F982AF3-E6E8-4568-86AE-9132B41EB8F3}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d1@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="N42" xr:uid="{924AD8D2-4B63-4DAE-A3C1-C3580D058FB9}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d1@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="N43" xr:uid="{D80DE7E7-8620-4B5D-8759-0CEE7C91015A}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d1@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="N44" xr:uid="{A1E51EB8-AD92-46CA-B182-43A2742B3A2E}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d1@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="N45" xr:uid="{2180E0B6-8423-4818-8C57-9033ADF7166B}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d1@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="N46" xr:uid="{07020D6D-3ACE-4F30-995E-156B481FE273}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d1@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="N47" xr:uid="{4E11057C-8F11-4E02-AC7F-A8CF8714DCEA}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d1@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="N48" xr:uid="{ECF554C6-3247-481C-AE45-0F01C570F8CB}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d1@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="N49" xr:uid="{7D160169-56A0-4DBA-BAF4-4BC6CB7B6C60}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d1@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="N50" xr:uid="{671B5B51-6DC5-4F2D-9F43-7B1874F13844}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d1@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="N51" xr:uid="{DA36FEC0-0E84-4B3A-A729-0B1420567721}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d1@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="N52" xr:uid="{37011FBF-FAA1-4DE9-9860-5BB717E46072}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d1@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="N53" xr:uid="{CB891F14-7C62-4D42-9F85-8AD13A8B66D0}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d1@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="N54" xr:uid="{1E26F326-C145-428A-B4E7-9879BCC1BDCC}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d1@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="N55" xr:uid="{1EB049DC-6A01-4283-96BC-D52498E3D2B0}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d1@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="N56" xr:uid="{9C02D7BB-ADF5-4176-BD34-8D0E749089B5}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d1@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="N57" xr:uid="{6F2636EB-D63D-4F08-9BA7-FD050842F024}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d1@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="N58" xr:uid="{419F0932-D74F-460D-95CB-16ED067AAA9F}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d1@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="N59" xr:uid="{135BEA1D-B4EA-4BCD-BDEF-740DFA15E0E0}"/>
+  <dataValidations count="13">
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="C59:C64 C3:C49" xr:uid="{78D84083-5DBE-450A-8504-4F71D609DCCC}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_e@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="M3:M75" xr:uid="{2D852152-A6AE-4283-929C-3061F6CE5FE1}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d4@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="E3:E75" xr:uid="{EAEB1A5F-0D40-4733-BB00-A725EF1C3B33}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_a@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="I3:I4 J3:J14 K3:L4 H3:H75" xr:uid="{A1EE5753-439B-4F55-ABB0-2324048FB51C}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_l@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="I3:J4 J5:J14 I3:I75" xr:uid="{7CF0F89E-C80E-4578-A3C9-8666DBEB2458}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r1@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="K3:L4 K3:K75" xr:uid="{2B1EC042-24F1-41CE-AAB2-1FB91C7CFA25}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_r2@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="J3:J75" xr:uid="{E8790516-FE1C-445A-9CD4-28DAE89A52BD}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d3@Эскиз1" prompt="Введите новое значение для этого параметра." sqref="J5:J14 E3:L4 D3:D75" xr:uid="{09E50F95-9D7E-49F8-98EA-83DDD5E21868}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_D@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="B3:B75" xr:uid="{3FC99DF7-431C-432E-88A1-B9BF24CAF91D}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_d1@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="O3:O15 N3:N59" xr:uid="{50442185-D530-451C-8A03-19D2FD04EFF2}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_DD@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="L3:L75" xr:uid="{014EC0FA-6466-477C-943E-1FC9B544980E}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_b@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="G3:L4 J5:J14 G3:G75" xr:uid="{CBAF7EC4-4C98-4545-84B9-08439C8BB442}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка SOLIDWORKS:" error="Введенное значение не верно.  Прежде чем продолжить, введите верное значение." promptTitle="_s@Эскиз2" prompt="Введите новое значение для этого параметра." sqref="F3:L4 J5:J14 F3:F75" xr:uid="{6C688956-C673-4F6D-AB06-AE104CE8885B}"/>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="O2" r:id="rId1" xr:uid="{E635130D-4DF6-46EB-81BE-D01C68FEBB63}"/>

--- a/ГОСТ/Подшипники/Стопор внутренний/Стопор внутренний до 165мм (ГОСТ 13943-86).xlsx
+++ b/ГОСТ/Подшипники/Стопор внутренний/Стопор внутренний до 165мм (ГОСТ 13943-86).xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4EE47138-F0FA-4921-852A-9FDC519AEDB4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D8CE5249-E4D2-4E15-9E38-0D0537A0B680}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="veryHidden" xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{A5059E7C-4793-41EC-90BC-71058505FA60}"/>
+    <workbookView visibility="veryHidden" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A5059E7C-4793-41EC-90BC-71058505FA60}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -13,10 +13,16 @@
   <definedNames>
     <definedName name="Family">Лист1!$A$2</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -440,7 +446,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8CC9191-12A5-4164-8AA7-9D7C0A5728CD}">
   <dimension ref="A1:O75"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="105" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -449,7 +455,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.5703125" style="1" customWidth="1"/>
     <col min="3" max="3" width="7.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="7.5703125" style="1" customWidth="1"/>

--- a/ГОСТ/Подшипники/Стопор внутренний/Стопор внутренний до 165мм (ГОСТ 13943-86).xlsx
+++ b/ГОСТ/Подшипники/Стопор внутренний/Стопор внутренний до 165мм (ГОСТ 13943-86).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D8CE5249-E4D2-4E15-9E38-0D0537A0B680}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{492965EA-F2CB-4617-8808-8EA5337265CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView visibility="veryHidden" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A5059E7C-4793-41EC-90BC-71058505FA60}"/>
   </bookViews>

--- a/ГОСТ/Подшипники/Стопор внутренний/Стопор внутренний до 165мм (ГОСТ 13943-86).xlsx
+++ b/ГОСТ/Подшипники/Стопор внутренний/Стопор внутренний до 165мм (ГОСТ 13943-86).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{492965EA-F2CB-4617-8808-8EA5337265CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{243D66F2-79B6-4C9A-A55B-00FA374C7D39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView visibility="veryHidden" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A5059E7C-4793-41EC-90BC-71058505FA60}"/>
   </bookViews>
@@ -13,7 +13,7 @@
   <definedNames>
     <definedName name="Family">Лист1!$A$2</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -447,10 +447,7 @@
   <dimension ref="A1:O75"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="105" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ГОСТ/Подшипники/Стопор внутренний/Стопор внутренний до 165мм (ГОСТ 13943-86).xlsx
+++ b/ГОСТ/Подшипники/Стопор внутренний/Стопор внутренний до 165мм (ГОСТ 13943-86).xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{243D66F2-79B6-4C9A-A55B-00FA374C7D39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F979E3F7-4F7B-416B-B968-CB78A60209A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="veryHidden" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A5059E7C-4793-41EC-90BC-71058505FA60}"/>
+    <workbookView visibility="veryHidden" xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{A5059E7C-4793-41EC-90BC-71058505FA60}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -446,7 +446,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8CC9191-12A5-4164-8AA7-9D7C0A5728CD}">
   <dimension ref="A1:O75"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="105" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>

--- a/ГОСТ/Подшипники/Стопор внутренний/Стопор внутренний до 165мм (ГОСТ 13943-86).xlsx
+++ b/ГОСТ/Подшипники/Стопор внутренний/Стопор внутренний до 165мм (ГОСТ 13943-86).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F979E3F7-4F7B-416B-B968-CB78A60209A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD76E8BA-CA02-4E97-9451-C3A4688A3866}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView visibility="veryHidden" xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{A5059E7C-4793-41EC-90BC-71058505FA60}"/>
   </bookViews>
@@ -30,9 +30,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
-  <si>
-    <t>Таблица параметров для: Стопор внутренний до 165мм (ГОСТ 13943-86)</t>
-  </si>
   <si>
     <t>_d2@Эскиз1</t>
   </si>
@@ -74,6 +71,9 @@
   </si>
   <si>
     <t>$СВОЙСТВО@Наименование</t>
+  </si>
+  <si>
+    <t>Таблица параметров для: Стопор внутренний до 165мм (ГОСТ 13943-86)</t>
   </si>
 </sst>
 </file>
@@ -446,8 +446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8CC9191-12A5-4164-8AA7-9D7C0A5728CD}">
   <dimension ref="A1:O75"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -464,51 +464,51 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="2" customFormat="1" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="O2" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
